--- a/01_Dimension 1-10/07_Dial and Digital Thickness Gauge(up to 25mm).xlsx
+++ b/01_Dimension 1-10/07_Dial and Digital Thickness Gauge(up to 25mm).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\proecho\01_Dimension 1-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\evgenis\01_Dimension 1-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="435" windowWidth="28065" windowHeight="17715" tabRatio="562" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="435" windowWidth="28065" windowHeight="17715" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Data Record" sheetId="11" r:id="rId1"/>
@@ -2789,12 +2789,144 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="49" fillId="0" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="49" fillId="0" borderId="8" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2804,30 +2936,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2837,113 +2945,20 @@
     <xf numFmtId="0" fontId="48" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="60" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="60" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="49" fillId="0" borderId="6" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="49" fillId="0" borderId="8" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="60" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2960,27 +2975,24 @@
     <xf numFmtId="1" fontId="60" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="60" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="60" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="174" fontId="19" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3032,16 +3044,22 @@
     <xf numFmtId="179" fontId="14" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="13" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3062,6 +3080,87 @@
     <xf numFmtId="173" fontId="14" fillId="0" borderId="15" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="11" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="11" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3101,9 +3200,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3116,102 +3212,6 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="11" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="11" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3241,6 +3241,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3271,18 +3283,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="172" fontId="23" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3395,8 +3395,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>23</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -3462,8 +3462,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -5209,8 +5209,8 @@
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
@@ -5276,8 +5276,8 @@
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
@@ -31023,8 +31023,8 @@
   </sheetPr>
   <dimension ref="A1:AM40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:U1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32:W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="18.75" customHeight="1"/>
@@ -31412,90 +31412,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="319" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="302"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
       <c r="K1" s="150" t="s">
         <v>66</v>
       </c>
       <c r="M1" s="150"/>
       <c r="N1" s="150"/>
-      <c r="O1" s="307" t="s">
+      <c r="O1" s="323" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="307"/>
-      <c r="S1" s="307"/>
-      <c r="T1" s="307"/>
-      <c r="U1" s="307"/>
+      <c r="P1" s="323"/>
+      <c r="Q1" s="323"/>
+      <c r="R1" s="323"/>
+      <c r="S1" s="323"/>
+      <c r="T1" s="323"/>
+      <c r="U1" s="323"/>
       <c r="V1" s="150"/>
       <c r="W1" s="150"/>
       <c r="X1" s="151" t="s">
         <v>67</v>
       </c>
       <c r="Y1" s="150"/>
-      <c r="Z1" s="297">
+      <c r="Z1" s="316">
         <v>1</v>
       </c>
-      <c r="AA1" s="297"/>
+      <c r="AA1" s="316"/>
       <c r="AB1" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="297">
+      <c r="AC1" s="316">
         <v>1</v>
       </c>
-      <c r="AD1" s="297"/>
+      <c r="AD1" s="316"/>
       <c r="AE1" s="152"/>
       <c r="AF1" s="152"/>
       <c r="AG1" s="152"/>
       <c r="AH1" s="143"/>
     </row>
     <row r="2" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A2" s="302"/>
-      <c r="B2" s="302"/>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="302"/>
-      <c r="H2" s="302"/>
-      <c r="I2" s="302"/>
-      <c r="J2" s="302"/>
+      <c r="A2" s="319"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
       <c r="K2" s="151" t="s">
         <v>69</v>
       </c>
       <c r="M2" s="150"/>
       <c r="N2" s="151"/>
-      <c r="O2" s="308">
+      <c r="O2" s="324">
         <v>42387</v>
       </c>
-      <c r="P2" s="308"/>
-      <c r="Q2" s="308"/>
-      <c r="R2" s="308"/>
-      <c r="S2" s="308"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="324"/>
+      <c r="S2" s="324"/>
       <c r="T2" s="151" t="s">
         <v>70</v>
       </c>
       <c r="V2" s="150"/>
       <c r="W2" s="154"/>
       <c r="X2" s="154"/>
-      <c r="Y2" s="309">
+      <c r="Y2" s="325">
         <v>42388</v>
       </c>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="309"/>
-      <c r="AB2" s="309"/>
-      <c r="AC2" s="309"/>
+      <c r="Z2" s="325"/>
+      <c r="AA2" s="325"/>
+      <c r="AB2" s="325"/>
+      <c r="AC2" s="325"/>
       <c r="AD2" s="268"/>
       <c r="AE2" s="152"/>
       <c r="AF2" s="152"/>
@@ -31503,18 +31503,18 @@
       <c r="AH2" s="143"/>
     </row>
     <row r="3" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="320" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
+      <c r="B3" s="320"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="320"/>
       <c r="K3" s="150" t="s">
         <v>72</v>
       </c>
@@ -31548,18 +31548,18 @@
       <c r="AH3" s="143"/>
     </row>
     <row r="4" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A4" s="304" t="s">
+      <c r="A4" s="321" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="304"/>
-      <c r="C4" s="304"/>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="304"/>
-      <c r="J4" s="304"/>
+      <c r="B4" s="321"/>
+      <c r="C4" s="321"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="321"/>
+      <c r="H4" s="321"/>
+      <c r="I4" s="321"/>
+      <c r="J4" s="321"/>
       <c r="K4" s="150" t="s">
         <v>56</v>
       </c>
@@ -31598,33 +31598,33 @@
       <c r="C5" s="158"/>
       <c r="D5" s="158"/>
       <c r="E5" s="158"/>
-      <c r="F5" s="298" t="s">
+      <c r="F5" s="317" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="298"/>
-      <c r="H5" s="298"/>
-      <c r="I5" s="298"/>
-      <c r="J5" s="298"/>
-      <c r="K5" s="298"/>
-      <c r="L5" s="298"/>
-      <c r="M5" s="298"/>
-      <c r="N5" s="298"/>
-      <c r="O5" s="298"/>
-      <c r="P5" s="298"/>
-      <c r="Q5" s="298"/>
-      <c r="R5" s="298"/>
-      <c r="S5" s="298"/>
-      <c r="T5" s="298"/>
-      <c r="U5" s="298"/>
-      <c r="V5" s="298"/>
-      <c r="W5" s="298"/>
-      <c r="X5" s="298"/>
-      <c r="Y5" s="298"/>
-      <c r="Z5" s="298"/>
-      <c r="AA5" s="298"/>
-      <c r="AB5" s="298"/>
-      <c r="AC5" s="298"/>
-      <c r="AD5" s="298"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="317"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="317"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="317"/>
+      <c r="Q5" s="317"/>
+      <c r="R5" s="317"/>
+      <c r="S5" s="317"/>
+      <c r="T5" s="317"/>
+      <c r="U5" s="317"/>
+      <c r="V5" s="317"/>
+      <c r="W5" s="317"/>
+      <c r="X5" s="317"/>
+      <c r="Y5" s="317"/>
+      <c r="Z5" s="317"/>
+      <c r="AA5" s="317"/>
+      <c r="AB5" s="317"/>
+      <c r="AC5" s="317"/>
+      <c r="AD5" s="317"/>
     </row>
     <row r="6" spans="1:39" s="143" customFormat="1" ht="22.5" customHeight="1">
       <c r="A6" s="157" t="s">
@@ -31634,35 +31634,35 @@
       <c r="C6" s="158"/>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
-      <c r="F6" s="298" t="s">
+      <c r="F6" s="317" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="298"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="298"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="298"/>
-      <c r="M6" s="298"/>
-      <c r="N6" s="298"/>
-      <c r="O6" s="298"/>
+      <c r="G6" s="317"/>
+      <c r="H6" s="317"/>
+      <c r="I6" s="317"/>
+      <c r="J6" s="317"/>
+      <c r="K6" s="317"/>
+      <c r="L6" s="317"/>
+      <c r="M6" s="317"/>
+      <c r="N6" s="317"/>
+      <c r="O6" s="317"/>
       <c r="P6" s="157" t="s">
         <v>78</v>
       </c>
       <c r="Q6" s="158"/>
-      <c r="T6" s="299" t="s">
+      <c r="T6" s="318" t="s">
         <v>93</v>
       </c>
-      <c r="U6" s="299"/>
-      <c r="V6" s="299"/>
-      <c r="W6" s="299"/>
-      <c r="X6" s="299"/>
-      <c r="Y6" s="299"/>
-      <c r="Z6" s="299"/>
-      <c r="AA6" s="299"/>
-      <c r="AB6" s="299"/>
-      <c r="AC6" s="299"/>
-      <c r="AD6" s="299"/>
+      <c r="U6" s="318"/>
+      <c r="V6" s="318"/>
+      <c r="W6" s="318"/>
+      <c r="X6" s="318"/>
+      <c r="Y6" s="318"/>
+      <c r="Z6" s="318"/>
+      <c r="AA6" s="318"/>
+      <c r="AB6" s="318"/>
+      <c r="AC6" s="318"/>
+      <c r="AD6" s="318"/>
       <c r="AH6" s="145"/>
       <c r="AI6" s="145"/>
     </row>
@@ -31670,42 +31670,42 @@
       <c r="A7" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="305">
+      <c r="D7" s="322">
         <v>123</v>
       </c>
-      <c r="E7" s="305"/>
-      <c r="F7" s="305"/>
-      <c r="G7" s="305"/>
-      <c r="H7" s="305"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="L7" s="311" t="s">
+      <c r="E7" s="322"/>
+      <c r="F7" s="322"/>
+      <c r="G7" s="322"/>
+      <c r="H7" s="322"/>
+      <c r="I7" s="322"/>
+      <c r="J7" s="322"/>
+      <c r="L7" s="309" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="311"/>
-      <c r="N7" s="311"/>
-      <c r="O7" s="305">
+      <c r="M7" s="309"/>
+      <c r="N7" s="309"/>
+      <c r="O7" s="322">
         <v>456</v>
       </c>
-      <c r="P7" s="305"/>
-      <c r="Q7" s="305"/>
-      <c r="R7" s="305"/>
-      <c r="S7" s="305"/>
-      <c r="T7" s="305"/>
-      <c r="U7" s="305"/>
-      <c r="V7" s="305"/>
-      <c r="W7" s="312" t="s">
+      <c r="P7" s="322"/>
+      <c r="Q7" s="322"/>
+      <c r="R7" s="322"/>
+      <c r="S7" s="322"/>
+      <c r="T7" s="322"/>
+      <c r="U7" s="322"/>
+      <c r="V7" s="322"/>
+      <c r="W7" s="310" t="s">
         <v>59</v>
       </c>
-      <c r="X7" s="312"/>
-      <c r="Y7" s="299">
+      <c r="X7" s="310"/>
+      <c r="Y7" s="318">
         <v>789</v>
       </c>
-      <c r="Z7" s="299"/>
-      <c r="AA7" s="299"/>
-      <c r="AB7" s="299"/>
-      <c r="AC7" s="299"/>
-      <c r="AD7" s="299"/>
+      <c r="Z7" s="318"/>
+      <c r="AA7" s="318"/>
+      <c r="AB7" s="318"/>
+      <c r="AC7" s="318"/>
+      <c r="AD7" s="318"/>
       <c r="AE7" s="161"/>
       <c r="AF7" s="161"/>
       <c r="AH7" s="145"/>
@@ -31717,27 +31717,27 @@
       </c>
       <c r="B8" s="159"/>
       <c r="C8" s="158"/>
-      <c r="D8" s="306">
+      <c r="D8" s="312">
         <v>0</v>
       </c>
-      <c r="E8" s="306"/>
+      <c r="E8" s="312"/>
       <c r="F8" s="257" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="306">
+      <c r="G8" s="312">
         <v>25</v>
       </c>
-      <c r="H8" s="306"/>
+      <c r="H8" s="312"/>
       <c r="I8" s="162" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="306">
+      <c r="O8" s="312">
         <v>1E-3</v>
       </c>
-      <c r="P8" s="306"/>
+      <c r="P8" s="312"/>
       <c r="Q8" s="160" t="s">
         <v>10</v>
       </c>
@@ -31746,13 +31746,13 @@
       <c r="W8" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="X8" s="300"/>
-      <c r="Y8" s="300"/>
-      <c r="Z8" s="300"/>
-      <c r="AA8" s="300"/>
-      <c r="AB8" s="300"/>
-      <c r="AC8" s="300"/>
-      <c r="AD8" s="300"/>
+      <c r="X8" s="313"/>
+      <c r="Y8" s="313"/>
+      <c r="Z8" s="313"/>
+      <c r="AA8" s="313"/>
+      <c r="AB8" s="313"/>
+      <c r="AC8" s="313"/>
+      <c r="AD8" s="313"/>
       <c r="AH8" s="145"/>
       <c r="AI8" s="145"/>
     </row>
@@ -31774,22 +31774,22 @@
         <v>84</v>
       </c>
       <c r="N9" s="162"/>
-      <c r="O9" s="301"/>
-      <c r="P9" s="301"/>
-      <c r="Q9" s="301"/>
-      <c r="R9" s="301"/>
-      <c r="S9" s="301"/>
-      <c r="T9" s="301"/>
-      <c r="U9" s="301"/>
-      <c r="V9" s="301"/>
-      <c r="W9" s="301"/>
-      <c r="X9" s="301"/>
-      <c r="Y9" s="301"/>
-      <c r="Z9" s="301"/>
-      <c r="AA9" s="301"/>
-      <c r="AB9" s="301"/>
-      <c r="AC9" s="301"/>
-      <c r="AD9" s="301"/>
+      <c r="O9" s="311"/>
+      <c r="P9" s="311"/>
+      <c r="Q9" s="311"/>
+      <c r="R9" s="311"/>
+      <c r="S9" s="311"/>
+      <c r="T9" s="311"/>
+      <c r="U9" s="311"/>
+      <c r="V9" s="311"/>
+      <c r="W9" s="311"/>
+      <c r="X9" s="311"/>
+      <c r="Y9" s="311"/>
+      <c r="Z9" s="311"/>
+      <c r="AA9" s="311"/>
+      <c r="AB9" s="311"/>
+      <c r="AC9" s="311"/>
+      <c r="AD9" s="311"/>
       <c r="AE9" s="161"/>
       <c r="AF9" s="161"/>
       <c r="AH9" s="145"/>
@@ -31839,33 +31839,33 @@
       <c r="C11" s="162"/>
       <c r="D11" s="162"/>
       <c r="E11" s="162"/>
-      <c r="F11" s="301"/>
-      <c r="G11" s="301"/>
-      <c r="H11" s="301"/>
-      <c r="I11" s="301"/>
-      <c r="J11" s="301"/>
-      <c r="K11" s="301"/>
-      <c r="L11" s="301"/>
-      <c r="M11" s="301"/>
-      <c r="N11" s="301"/>
-      <c r="O11" s="301"/>
-      <c r="P11" s="301"/>
+      <c r="F11" s="311"/>
+      <c r="G11" s="311"/>
+      <c r="H11" s="311"/>
+      <c r="I11" s="311"/>
+      <c r="J11" s="311"/>
+      <c r="K11" s="311"/>
+      <c r="L11" s="311"/>
+      <c r="M11" s="311"/>
+      <c r="N11" s="311"/>
+      <c r="O11" s="311"/>
+      <c r="P11" s="311"/>
       <c r="Q11" s="157"/>
       <c r="R11" s="169" t="s">
         <v>85</v>
       </c>
       <c r="S11" s="169"/>
-      <c r="T11" s="300"/>
-      <c r="U11" s="300"/>
-      <c r="V11" s="300"/>
-      <c r="W11" s="300"/>
-      <c r="X11" s="300"/>
-      <c r="Y11" s="300"/>
-      <c r="Z11" s="300"/>
-      <c r="AA11" s="300"/>
-      <c r="AB11" s="300"/>
-      <c r="AC11" s="300"/>
-      <c r="AD11" s="300"/>
+      <c r="T11" s="313"/>
+      <c r="U11" s="313"/>
+      <c r="V11" s="313"/>
+      <c r="W11" s="313"/>
+      <c r="X11" s="313"/>
+      <c r="Y11" s="313"/>
+      <c r="Z11" s="313"/>
+      <c r="AA11" s="313"/>
+      <c r="AB11" s="313"/>
+      <c r="AC11" s="313"/>
+      <c r="AD11" s="313"/>
       <c r="AE11" s="148"/>
       <c r="AF11" s="148"/>
     </row>
@@ -31877,33 +31877,33 @@
       <c r="C12" s="162"/>
       <c r="D12" s="162"/>
       <c r="E12" s="162"/>
-      <c r="F12" s="306"/>
-      <c r="G12" s="306"/>
-      <c r="H12" s="306"/>
-      <c r="I12" s="306"/>
-      <c r="J12" s="306"/>
-      <c r="K12" s="306"/>
-      <c r="L12" s="306"/>
-      <c r="M12" s="306"/>
-      <c r="N12" s="306"/>
-      <c r="O12" s="306"/>
-      <c r="P12" s="306"/>
+      <c r="F12" s="312"/>
+      <c r="G12" s="312"/>
+      <c r="H12" s="312"/>
+      <c r="I12" s="312"/>
+      <c r="J12" s="312"/>
+      <c r="K12" s="312"/>
+      <c r="L12" s="312"/>
+      <c r="M12" s="312"/>
+      <c r="N12" s="312"/>
+      <c r="O12" s="312"/>
+      <c r="P12" s="312"/>
       <c r="Q12" s="157"/>
       <c r="R12" s="169" t="s">
         <v>85</v>
       </c>
       <c r="S12" s="169"/>
-      <c r="T12" s="313"/>
-      <c r="U12" s="313"/>
-      <c r="V12" s="313"/>
-      <c r="W12" s="313"/>
-      <c r="X12" s="313"/>
-      <c r="Y12" s="313"/>
-      <c r="Z12" s="313"/>
-      <c r="AA12" s="313"/>
-      <c r="AB12" s="313"/>
-      <c r="AC12" s="313"/>
-      <c r="AD12" s="313"/>
+      <c r="T12" s="314"/>
+      <c r="U12" s="314"/>
+      <c r="V12" s="314"/>
+      <c r="W12" s="314"/>
+      <c r="X12" s="314"/>
+      <c r="Y12" s="314"/>
+      <c r="Z12" s="314"/>
+      <c r="AA12" s="314"/>
+      <c r="AB12" s="314"/>
+      <c r="AC12" s="314"/>
+      <c r="AD12" s="314"/>
       <c r="AH12" s="78"/>
       <c r="AI12" s="78"/>
       <c r="AJ12" s="170"/>
@@ -31931,27 +31931,27 @@
       <c r="AM14" s="173"/>
     </row>
     <row r="15" spans="1:39" s="143" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B15" s="294" t="s">
+      <c r="B15" s="330" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="285"/>
-      <c r="D15" s="285"/>
-      <c r="E15" s="285" t="s">
+      <c r="C15" s="329"/>
+      <c r="D15" s="329"/>
+      <c r="E15" s="329" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="285"/>
-      <c r="G15" s="285"/>
-      <c r="H15" s="288" t="s">
+      <c r="F15" s="329"/>
+      <c r="G15" s="329"/>
+      <c r="H15" s="286" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="289"/>
-      <c r="J15" s="290"/>
-      <c r="K15" s="296" t="s">
+      <c r="I15" s="287"/>
+      <c r="J15" s="294"/>
+      <c r="K15" s="332" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="296"/>
-      <c r="M15" s="296"/>
-      <c r="N15" s="296"/>
+      <c r="L15" s="332"/>
+      <c r="M15" s="332"/>
+      <c r="N15" s="332"/>
       <c r="O15" s="63"/>
       <c r="P15" s="63"/>
       <c r="Q15" s="63"/>
@@ -31967,27 +31967,27 @@
       <c r="AA15" s="273"/>
       <c r="AB15" s="271"/>
       <c r="AC15" s="271"/>
-      <c r="AD15" s="295"/>
-      <c r="AE15" s="295"/>
-      <c r="AF15" s="295"/>
+      <c r="AD15" s="331"/>
+      <c r="AE15" s="331"/>
+      <c r="AF15" s="331"/>
       <c r="AK15" s="173"/>
       <c r="AL15" s="173"/>
       <c r="AM15" s="173"/>
     </row>
     <row r="16" spans="1:39" s="143" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B16" s="285"/>
-      <c r="C16" s="285"/>
-      <c r="D16" s="285"/>
-      <c r="E16" s="285"/>
-      <c r="F16" s="285"/>
-      <c r="G16" s="285"/>
-      <c r="H16" s="291"/>
-      <c r="I16" s="292"/>
-      <c r="J16" s="293"/>
-      <c r="K16" s="296"/>
-      <c r="L16" s="296"/>
-      <c r="M16" s="296"/>
-      <c r="N16" s="296"/>
+      <c r="B16" s="329"/>
+      <c r="C16" s="329"/>
+      <c r="D16" s="329"/>
+      <c r="E16" s="329"/>
+      <c r="F16" s="329"/>
+      <c r="G16" s="329"/>
+      <c r="H16" s="288"/>
+      <c r="I16" s="289"/>
+      <c r="J16" s="295"/>
+      <c r="K16" s="332"/>
+      <c r="L16" s="332"/>
+      <c r="M16" s="332"/>
+      <c r="N16" s="332"/>
       <c r="O16" s="63"/>
       <c r="P16" s="63"/>
       <c r="Q16" s="63"/>
@@ -32003,80 +32003,80 @@
       <c r="AA16" s="273"/>
       <c r="AB16" s="271"/>
       <c r="AC16" s="271"/>
-      <c r="AD16" s="295"/>
-      <c r="AE16" s="295"/>
-      <c r="AF16" s="295"/>
+      <c r="AD16" s="331"/>
+      <c r="AE16" s="331"/>
+      <c r="AF16" s="331"/>
       <c r="AK16" s="173"/>
       <c r="AL16" s="173"/>
       <c r="AM16" s="173"/>
     </row>
     <row r="17" spans="2:39" s="143" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B17" s="287">
+      <c r="B17" s="285">
         <f>G8*10%</f>
         <v>2.5</v>
       </c>
-      <c r="C17" s="287"/>
-      <c r="D17" s="287"/>
-      <c r="E17" s="286">
+      <c r="C17" s="285"/>
+      <c r="D17" s="285"/>
+      <c r="E17" s="315">
         <v>1</v>
       </c>
-      <c r="F17" s="286"/>
-      <c r="G17" s="286"/>
-      <c r="H17" s="281">
+      <c r="F17" s="315"/>
+      <c r="G17" s="315"/>
+      <c r="H17" s="326">
         <v>2.5009999999999999</v>
       </c>
-      <c r="I17" s="282"/>
-      <c r="J17" s="282"/>
-      <c r="K17" s="282">
+      <c r="I17" s="284"/>
+      <c r="J17" s="284"/>
+      <c r="K17" s="284">
         <f>H17-B17</f>
         <v>9.9999999999988987E-4</v>
       </c>
-      <c r="L17" s="282"/>
-      <c r="M17" s="282"/>
-      <c r="N17" s="282"/>
+      <c r="L17" s="284"/>
+      <c r="M17" s="284"/>
+      <c r="N17" s="284"/>
       <c r="O17" s="274"/>
       <c r="P17" s="274"/>
       <c r="Q17" s="274"/>
       <c r="R17" s="274"/>
       <c r="S17" s="274"/>
-      <c r="T17" s="284"/>
-      <c r="U17" s="284"/>
-      <c r="V17" s="284"/>
-      <c r="W17" s="284"/>
+      <c r="T17" s="328"/>
+      <c r="U17" s="328"/>
+      <c r="V17" s="328"/>
+      <c r="W17" s="328"/>
       <c r="X17" s="275"/>
       <c r="Y17" s="275"/>
       <c r="Z17" s="275"/>
       <c r="AA17" s="273"/>
       <c r="AB17" s="271"/>
       <c r="AC17" s="271"/>
-      <c r="AD17" s="283"/>
-      <c r="AE17" s="283"/>
-      <c r="AF17" s="283"/>
+      <c r="AD17" s="327"/>
+      <c r="AE17" s="327"/>
+      <c r="AF17" s="327"/>
       <c r="AK17" s="173"/>
       <c r="AL17" s="173"/>
       <c r="AM17" s="173"/>
     </row>
     <row r="18" spans="2:39" s="143" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B18" s="287"/>
-      <c r="C18" s="287"/>
-      <c r="D18" s="287"/>
-      <c r="E18" s="286">
+      <c r="B18" s="285"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="285"/>
+      <c r="E18" s="315">
         <v>2</v>
       </c>
-      <c r="F18" s="286"/>
-      <c r="G18" s="286"/>
-      <c r="H18" s="281">
+      <c r="F18" s="315"/>
+      <c r="G18" s="315"/>
+      <c r="H18" s="326">
         <v>2.5</v>
       </c>
-      <c r="I18" s="282"/>
-      <c r="J18" s="282"/>
-      <c r="K18" s="282">
+      <c r="I18" s="284"/>
+      <c r="J18" s="284"/>
+      <c r="K18" s="284">
         <f>H18-B17</f>
         <v>0</v>
       </c>
-      <c r="L18" s="282"/>
-      <c r="M18" s="282"/>
-      <c r="N18" s="282"/>
+      <c r="L18" s="284"/>
+      <c r="M18" s="284"/>
+      <c r="N18" s="284"/>
       <c r="O18" s="253"/>
       <c r="P18" s="253"/>
       <c r="Q18" s="254"/>
@@ -32088,26 +32088,26 @@
       <c r="AM18" s="173"/>
     </row>
     <row r="19" spans="2:39" s="143" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B19" s="287"/>
-      <c r="C19" s="287"/>
-      <c r="D19" s="287"/>
-      <c r="E19" s="286">
+      <c r="B19" s="285"/>
+      <c r="C19" s="285"/>
+      <c r="D19" s="285"/>
+      <c r="E19" s="315">
         <v>3</v>
       </c>
-      <c r="F19" s="286"/>
-      <c r="G19" s="286"/>
-      <c r="H19" s="281">
+      <c r="F19" s="315"/>
+      <c r="G19" s="315"/>
+      <c r="H19" s="326">
         <v>2.5</v>
       </c>
-      <c r="I19" s="282"/>
-      <c r="J19" s="282"/>
-      <c r="K19" s="282">
+      <c r="I19" s="284"/>
+      <c r="J19" s="284"/>
+      <c r="K19" s="284">
         <f>H19-B17</f>
         <v>0</v>
       </c>
-      <c r="L19" s="282"/>
-      <c r="M19" s="282"/>
-      <c r="N19" s="282"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="284"/>
+      <c r="N19" s="284"/>
       <c r="O19" s="253"/>
       <c r="P19" s="253"/>
       <c r="Q19" s="254"/>
@@ -32119,26 +32119,26 @@
       <c r="AM19" s="173"/>
     </row>
     <row r="20" spans="2:39" s="143" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B20" s="287"/>
-      <c r="C20" s="287"/>
-      <c r="D20" s="287"/>
-      <c r="E20" s="286">
+      <c r="B20" s="285"/>
+      <c r="C20" s="285"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="315">
         <v>4</v>
       </c>
-      <c r="F20" s="286"/>
-      <c r="G20" s="286"/>
-      <c r="H20" s="281">
+      <c r="F20" s="315"/>
+      <c r="G20" s="315"/>
+      <c r="H20" s="326">
         <v>2.5</v>
       </c>
-      <c r="I20" s="282"/>
-      <c r="J20" s="282"/>
-      <c r="K20" s="282">
+      <c r="I20" s="284"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="284">
         <f>H20-B17</f>
         <v>0</v>
       </c>
-      <c r="L20" s="282"/>
-      <c r="M20" s="282"/>
-      <c r="N20" s="282"/>
+      <c r="L20" s="284"/>
+      <c r="M20" s="284"/>
+      <c r="N20" s="284"/>
       <c r="AF20" s="172"/>
       <c r="AK20" s="173"/>
       <c r="AL20" s="173"/>
@@ -32154,41 +32154,41 @@
       <c r="AM21" s="173"/>
     </row>
     <row r="22" spans="2:39" s="143" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B22" s="288" t="s">
+      <c r="B22" s="286" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="289"/>
-      <c r="D22" s="289"/>
-      <c r="E22" s="317" t="s">
+      <c r="C22" s="287"/>
+      <c r="D22" s="287"/>
+      <c r="E22" s="290" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="318"/>
-      <c r="G22" s="318"/>
-      <c r="H22" s="318"/>
-      <c r="I22" s="318"/>
-      <c r="J22" s="318"/>
-      <c r="K22" s="318"/>
-      <c r="L22" s="318"/>
-      <c r="M22" s="318"/>
-      <c r="N22" s="318"/>
-      <c r="O22" s="318"/>
-      <c r="P22" s="319"/>
-      <c r="Q22" s="320" t="s">
+      <c r="F22" s="291"/>
+      <c r="G22" s="291"/>
+      <c r="H22" s="291"/>
+      <c r="I22" s="291"/>
+      <c r="J22" s="291"/>
+      <c r="K22" s="291"/>
+      <c r="L22" s="291"/>
+      <c r="M22" s="291"/>
+      <c r="N22" s="291"/>
+      <c r="O22" s="291"/>
+      <c r="P22" s="292"/>
+      <c r="Q22" s="293" t="s">
         <v>21</v>
       </c>
-      <c r="R22" s="289"/>
-      <c r="S22" s="290"/>
-      <c r="T22" s="321" t="s">
+      <c r="R22" s="287"/>
+      <c r="S22" s="294"/>
+      <c r="T22" s="296" t="s">
         <v>2</v>
       </c>
-      <c r="U22" s="322"/>
-      <c r="V22" s="322"/>
-      <c r="W22" s="323"/>
-      <c r="X22" s="327" t="s">
+      <c r="U22" s="297"/>
+      <c r="V22" s="297"/>
+      <c r="W22" s="298"/>
+      <c r="X22" s="302" t="s">
         <v>22</v>
       </c>
-      <c r="Y22" s="328"/>
-      <c r="Z22" s="329"/>
+      <c r="Y22" s="303"/>
+      <c r="Z22" s="304"/>
       <c r="AA22" s="201"/>
       <c r="AB22" s="62"/>
       <c r="AE22"/>
@@ -32198,39 +32198,39 @@
       <c r="AM22" s="173"/>
     </row>
     <row r="23" spans="2:39" ht="22.5" customHeight="1">
-      <c r="B23" s="291"/>
-      <c r="C23" s="292"/>
-      <c r="D23" s="292"/>
-      <c r="E23" s="317" t="s">
+      <c r="B23" s="288"/>
+      <c r="C23" s="289"/>
+      <c r="D23" s="289"/>
+      <c r="E23" s="290" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="318"/>
-      <c r="G23" s="319"/>
-      <c r="H23" s="317" t="s">
+      <c r="F23" s="291"/>
+      <c r="G23" s="292"/>
+      <c r="H23" s="290" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="318"/>
-      <c r="J23" s="319"/>
-      <c r="K23" s="317" t="s">
+      <c r="I23" s="291"/>
+      <c r="J23" s="292"/>
+      <c r="K23" s="290" t="s">
         <v>97</v>
       </c>
-      <c r="L23" s="318"/>
-      <c r="M23" s="319"/>
-      <c r="N23" s="317" t="s">
+      <c r="L23" s="291"/>
+      <c r="M23" s="292"/>
+      <c r="N23" s="290" t="s">
         <v>98</v>
       </c>
-      <c r="O23" s="318"/>
-      <c r="P23" s="319"/>
-      <c r="Q23" s="291"/>
-      <c r="R23" s="292"/>
-      <c r="S23" s="293"/>
-      <c r="T23" s="324"/>
-      <c r="U23" s="325"/>
-      <c r="V23" s="325"/>
-      <c r="W23" s="326"/>
-      <c r="X23" s="330"/>
-      <c r="Y23" s="331"/>
-      <c r="Z23" s="332"/>
+      <c r="O23" s="291"/>
+      <c r="P23" s="292"/>
+      <c r="Q23" s="288"/>
+      <c r="R23" s="289"/>
+      <c r="S23" s="295"/>
+      <c r="T23" s="299"/>
+      <c r="U23" s="300"/>
+      <c r="V23" s="300"/>
+      <c r="W23" s="301"/>
+      <c r="X23" s="305"/>
+      <c r="Y23" s="306"/>
+      <c r="Z23" s="307"/>
       <c r="AA23" s="201"/>
       <c r="AB23" s="62"/>
       <c r="AE23"/>
@@ -32240,51 +32240,51 @@
       <c r="AM23" s="173"/>
     </row>
     <row r="24" spans="2:39" ht="22.5" customHeight="1">
-      <c r="B24" s="287">
+      <c r="B24" s="285">
         <f>G8*10%</f>
         <v>2.5</v>
       </c>
-      <c r="C24" s="287"/>
-      <c r="D24" s="287"/>
-      <c r="E24" s="282">
+      <c r="C24" s="285"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="284">
         <v>1</v>
       </c>
-      <c r="F24" s="282"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="282">
+      <c r="F24" s="284"/>
+      <c r="G24" s="284"/>
+      <c r="H24" s="284">
         <v>1</v>
       </c>
-      <c r="I24" s="282"/>
-      <c r="J24" s="282"/>
-      <c r="K24" s="282">
+      <c r="I24" s="284"/>
+      <c r="J24" s="284"/>
+      <c r="K24" s="284">
         <v>1</v>
       </c>
-      <c r="L24" s="282"/>
-      <c r="M24" s="282"/>
-      <c r="N24" s="282">
+      <c r="L24" s="284"/>
+      <c r="M24" s="284"/>
+      <c r="N24" s="284">
         <v>1</v>
       </c>
-      <c r="O24" s="282"/>
-      <c r="P24" s="282"/>
-      <c r="Q24" s="314">
+      <c r="O24" s="284"/>
+      <c r="P24" s="284"/>
+      <c r="Q24" s="282">
         <f>AVERAGE(E24:P24)</f>
         <v>1</v>
       </c>
-      <c r="R24" s="314"/>
-      <c r="S24" s="314"/>
-      <c r="T24" s="315">
-        <f>STDEV(E24:P24)/SQRT(4)</f>
+      <c r="R24" s="282"/>
+      <c r="S24" s="282"/>
+      <c r="T24" s="283">
+        <f>_xlfn.STDEV.S(E24:P24)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="315"/>
-      <c r="V24" s="315"/>
-      <c r="W24" s="315"/>
-      <c r="X24" s="316">
+      <c r="U24" s="283"/>
+      <c r="V24" s="283"/>
+      <c r="W24" s="283"/>
+      <c r="X24" s="281">
         <f>Q24-B24</f>
         <v>-1.5</v>
       </c>
-      <c r="Y24" s="316"/>
-      <c r="Z24" s="316"/>
+      <c r="Y24" s="281"/>
+      <c r="Z24" s="281"/>
       <c r="AA24" s="202"/>
       <c r="AB24" s="203"/>
       <c r="AE24"/>
@@ -32294,459 +32294,459 @@
       <c r="AM24" s="173"/>
     </row>
     <row r="25" spans="2:39" ht="22.5" customHeight="1">
-      <c r="B25" s="287">
+      <c r="B25" s="285">
         <f>G8*20%</f>
         <v>5</v>
       </c>
-      <c r="C25" s="287"/>
-      <c r="D25" s="287"/>
-      <c r="E25" s="282">
+      <c r="C25" s="285"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="284">
         <v>2</v>
       </c>
-      <c r="F25" s="282"/>
-      <c r="G25" s="282"/>
-      <c r="H25" s="282">
+      <c r="F25" s="284"/>
+      <c r="G25" s="284"/>
+      <c r="H25" s="284">
         <v>2</v>
       </c>
-      <c r="I25" s="282"/>
-      <c r="J25" s="282"/>
-      <c r="K25" s="282">
+      <c r="I25" s="284"/>
+      <c r="J25" s="284"/>
+      <c r="K25" s="284">
         <v>2</v>
       </c>
-      <c r="L25" s="282"/>
-      <c r="M25" s="282"/>
-      <c r="N25" s="282">
+      <c r="L25" s="284"/>
+      <c r="M25" s="284"/>
+      <c r="N25" s="284">
         <v>2</v>
       </c>
-      <c r="O25" s="282"/>
-      <c r="P25" s="282"/>
-      <c r="Q25" s="314">
+      <c r="O25" s="284"/>
+      <c r="P25" s="284"/>
+      <c r="Q25" s="282">
         <f t="shared" ref="Q25:Q33" si="0">AVERAGE(E25:P25)</f>
         <v>2</v>
       </c>
-      <c r="R25" s="314"/>
-      <c r="S25" s="314"/>
-      <c r="T25" s="315">
-        <f t="shared" ref="T25:T33" si="1">STDEV(E25:P25)/SQRT(4)</f>
+      <c r="R25" s="282"/>
+      <c r="S25" s="282"/>
+      <c r="T25" s="283">
+        <f t="shared" ref="T25:T33" si="1">_xlfn.STDEV.S(E25:P25)/SQRT(4)</f>
         <v>0</v>
       </c>
-      <c r="U25" s="315"/>
-      <c r="V25" s="315"/>
-      <c r="W25" s="315"/>
-      <c r="X25" s="316">
+      <c r="U25" s="283"/>
+      <c r="V25" s="283"/>
+      <c r="W25" s="283"/>
+      <c r="X25" s="281">
         <f t="shared" ref="X25:X33" si="2">Q25-B25</f>
         <v>-3</v>
       </c>
-      <c r="Y25" s="316"/>
-      <c r="Z25" s="316"/>
+      <c r="Y25" s="281"/>
+      <c r="Z25" s="281"/>
       <c r="AA25" s="202"/>
       <c r="AB25" s="203"/>
       <c r="AE25"/>
       <c r="AF25"/>
     </row>
     <row r="26" spans="2:39" ht="22.5" customHeight="1">
-      <c r="B26" s="287">
+      <c r="B26" s="285">
         <f>G8*30%</f>
         <v>7.5</v>
       </c>
-      <c r="C26" s="287"/>
-      <c r="D26" s="287"/>
-      <c r="E26" s="282">
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="284">
         <v>3</v>
       </c>
-      <c r="F26" s="282"/>
-      <c r="G26" s="282"/>
-      <c r="H26" s="282">
+      <c r="F26" s="284"/>
+      <c r="G26" s="284"/>
+      <c r="H26" s="284">
         <v>3</v>
       </c>
-      <c r="I26" s="282"/>
-      <c r="J26" s="282"/>
-      <c r="K26" s="282">
+      <c r="I26" s="284"/>
+      <c r="J26" s="284"/>
+      <c r="K26" s="284">
         <v>3</v>
       </c>
-      <c r="L26" s="282"/>
-      <c r="M26" s="282"/>
-      <c r="N26" s="282">
+      <c r="L26" s="284"/>
+      <c r="M26" s="284"/>
+      <c r="N26" s="284">
         <v>3</v>
       </c>
-      <c r="O26" s="282"/>
-      <c r="P26" s="282"/>
-      <c r="Q26" s="314">
+      <c r="O26" s="284"/>
+      <c r="P26" s="284"/>
+      <c r="Q26" s="282">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R26" s="314"/>
-      <c r="S26" s="314"/>
-      <c r="T26" s="315">
+      <c r="R26" s="282"/>
+      <c r="S26" s="282"/>
+      <c r="T26" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="315"/>
-      <c r="V26" s="315"/>
-      <c r="W26" s="315"/>
-      <c r="X26" s="316">
+      <c r="U26" s="283"/>
+      <c r="V26" s="283"/>
+      <c r="W26" s="283"/>
+      <c r="X26" s="281">
         <f t="shared" si="2"/>
         <v>-4.5</v>
       </c>
-      <c r="Y26" s="316"/>
-      <c r="Z26" s="316"/>
+      <c r="Y26" s="281"/>
+      <c r="Z26" s="281"/>
       <c r="AA26" s="202"/>
       <c r="AB26" s="203"/>
       <c r="AE26"/>
       <c r="AF26"/>
     </row>
     <row r="27" spans="2:39" ht="22.5" customHeight="1">
-      <c r="B27" s="287">
+      <c r="B27" s="285">
         <f>G8*40%</f>
         <v>10</v>
       </c>
-      <c r="C27" s="287"/>
-      <c r="D27" s="287"/>
-      <c r="E27" s="282">
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="284">
         <v>4</v>
       </c>
-      <c r="F27" s="282"/>
-      <c r="G27" s="282"/>
-      <c r="H27" s="282">
+      <c r="F27" s="284"/>
+      <c r="G27" s="284"/>
+      <c r="H27" s="284">
         <v>4</v>
       </c>
-      <c r="I27" s="282"/>
-      <c r="J27" s="282"/>
-      <c r="K27" s="282">
+      <c r="I27" s="284"/>
+      <c r="J27" s="284"/>
+      <c r="K27" s="284">
         <v>4</v>
       </c>
-      <c r="L27" s="282"/>
-      <c r="M27" s="282"/>
-      <c r="N27" s="282">
+      <c r="L27" s="284"/>
+      <c r="M27" s="284"/>
+      <c r="N27" s="284">
         <v>4</v>
       </c>
-      <c r="O27" s="282"/>
-      <c r="P27" s="282"/>
-      <c r="Q27" s="314">
+      <c r="O27" s="284"/>
+      <c r="P27" s="284"/>
+      <c r="Q27" s="282">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R27" s="314"/>
-      <c r="S27" s="314"/>
-      <c r="T27" s="315">
+      <c r="R27" s="282"/>
+      <c r="S27" s="282"/>
+      <c r="T27" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="315"/>
-      <c r="V27" s="315"/>
-      <c r="W27" s="315"/>
-      <c r="X27" s="316">
+      <c r="U27" s="283"/>
+      <c r="V27" s="283"/>
+      <c r="W27" s="283"/>
+      <c r="X27" s="281">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="Y27" s="316"/>
-      <c r="Z27" s="316"/>
+      <c r="Y27" s="281"/>
+      <c r="Z27" s="281"/>
       <c r="AA27" s="202"/>
       <c r="AB27" s="203"/>
       <c r="AE27"/>
       <c r="AF27"/>
     </row>
     <row r="28" spans="2:39" ht="22.5" customHeight="1">
-      <c r="B28" s="287">
+      <c r="B28" s="285">
         <f>G8*50%</f>
         <v>12.5</v>
       </c>
-      <c r="C28" s="287"/>
-      <c r="D28" s="287"/>
-      <c r="E28" s="282">
+      <c r="C28" s="285"/>
+      <c r="D28" s="285"/>
+      <c r="E28" s="284">
         <v>5</v>
       </c>
-      <c r="F28" s="282"/>
-      <c r="G28" s="282"/>
-      <c r="H28" s="282">
+      <c r="F28" s="284"/>
+      <c r="G28" s="284"/>
+      <c r="H28" s="284">
         <v>5</v>
       </c>
-      <c r="I28" s="282"/>
-      <c r="J28" s="282"/>
-      <c r="K28" s="282">
+      <c r="I28" s="284"/>
+      <c r="J28" s="284"/>
+      <c r="K28" s="284">
         <v>5</v>
       </c>
-      <c r="L28" s="282"/>
-      <c r="M28" s="282"/>
-      <c r="N28" s="282">
+      <c r="L28" s="284"/>
+      <c r="M28" s="284"/>
+      <c r="N28" s="284">
         <v>5</v>
       </c>
-      <c r="O28" s="282"/>
-      <c r="P28" s="282"/>
-      <c r="Q28" s="314">
+      <c r="O28" s="284"/>
+      <c r="P28" s="284"/>
+      <c r="Q28" s="282">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="R28" s="314"/>
-      <c r="S28" s="314"/>
-      <c r="T28" s="315">
+      <c r="R28" s="282"/>
+      <c r="S28" s="282"/>
+      <c r="T28" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="315"/>
-      <c r="V28" s="315"/>
-      <c r="W28" s="315"/>
-      <c r="X28" s="316">
+      <c r="U28" s="283"/>
+      <c r="V28" s="283"/>
+      <c r="W28" s="283"/>
+      <c r="X28" s="281">
         <f t="shared" si="2"/>
         <v>-7.5</v>
       </c>
-      <c r="Y28" s="316"/>
-      <c r="Z28" s="316"/>
+      <c r="Y28" s="281"/>
+      <c r="Z28" s="281"/>
       <c r="AA28" s="202"/>
       <c r="AB28" s="203"/>
       <c r="AE28"/>
       <c r="AF28"/>
     </row>
     <row r="29" spans="2:39" ht="22.5" customHeight="1">
-      <c r="B29" s="287">
+      <c r="B29" s="285">
         <f>G8*60%</f>
         <v>15</v>
       </c>
-      <c r="C29" s="287"/>
-      <c r="D29" s="287"/>
-      <c r="E29" s="282">
+      <c r="C29" s="285"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="284">
         <v>6</v>
       </c>
-      <c r="F29" s="282"/>
-      <c r="G29" s="282"/>
-      <c r="H29" s="282">
+      <c r="F29" s="284"/>
+      <c r="G29" s="284"/>
+      <c r="H29" s="284">
         <v>6</v>
       </c>
-      <c r="I29" s="282"/>
-      <c r="J29" s="282"/>
-      <c r="K29" s="282">
+      <c r="I29" s="284"/>
+      <c r="J29" s="284"/>
+      <c r="K29" s="284">
         <v>6</v>
       </c>
-      <c r="L29" s="282"/>
-      <c r="M29" s="282"/>
-      <c r="N29" s="282">
+      <c r="L29" s="284"/>
+      <c r="M29" s="284"/>
+      <c r="N29" s="284">
         <v>6</v>
       </c>
-      <c r="O29" s="282"/>
-      <c r="P29" s="282"/>
-      <c r="Q29" s="314">
+      <c r="O29" s="284"/>
+      <c r="P29" s="284"/>
+      <c r="Q29" s="282">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R29" s="314"/>
-      <c r="S29" s="314"/>
-      <c r="T29" s="315">
+      <c r="R29" s="282"/>
+      <c r="S29" s="282"/>
+      <c r="T29" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="315"/>
-      <c r="V29" s="315"/>
-      <c r="W29" s="315"/>
-      <c r="X29" s="316">
+      <c r="U29" s="283"/>
+      <c r="V29" s="283"/>
+      <c r="W29" s="283"/>
+      <c r="X29" s="281">
         <f t="shared" si="2"/>
         <v>-9</v>
       </c>
-      <c r="Y29" s="316"/>
-      <c r="Z29" s="316"/>
+      <c r="Y29" s="281"/>
+      <c r="Z29" s="281"/>
       <c r="AA29" s="202"/>
       <c r="AB29" s="203"/>
       <c r="AE29"/>
       <c r="AF29"/>
     </row>
     <row r="30" spans="2:39" ht="22.5" customHeight="1">
-      <c r="B30" s="287">
+      <c r="B30" s="285">
         <f>G8*70%</f>
         <v>17.5</v>
       </c>
-      <c r="C30" s="287"/>
-      <c r="D30" s="287"/>
-      <c r="E30" s="282">
+      <c r="C30" s="285"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="284">
         <v>7</v>
       </c>
-      <c r="F30" s="282"/>
-      <c r="G30" s="282"/>
-      <c r="H30" s="282">
+      <c r="F30" s="284"/>
+      <c r="G30" s="284"/>
+      <c r="H30" s="284">
         <v>7</v>
       </c>
-      <c r="I30" s="282"/>
-      <c r="J30" s="282"/>
-      <c r="K30" s="282">
+      <c r="I30" s="284"/>
+      <c r="J30" s="284"/>
+      <c r="K30" s="284">
         <v>7</v>
       </c>
-      <c r="L30" s="282"/>
-      <c r="M30" s="282"/>
-      <c r="N30" s="282">
+      <c r="L30" s="284"/>
+      <c r="M30" s="284"/>
+      <c r="N30" s="284">
         <v>7</v>
       </c>
-      <c r="O30" s="282"/>
-      <c r="P30" s="282"/>
-      <c r="Q30" s="314">
+      <c r="O30" s="284"/>
+      <c r="P30" s="284"/>
+      <c r="Q30" s="282">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="R30" s="314"/>
-      <c r="S30" s="314"/>
-      <c r="T30" s="315">
+      <c r="R30" s="282"/>
+      <c r="S30" s="282"/>
+      <c r="T30" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="315"/>
-      <c r="V30" s="315"/>
-      <c r="W30" s="315"/>
-      <c r="X30" s="316">
+      <c r="U30" s="283"/>
+      <c r="V30" s="283"/>
+      <c r="W30" s="283"/>
+      <c r="X30" s="281">
         <f t="shared" si="2"/>
         <v>-10.5</v>
       </c>
-      <c r="Y30" s="316"/>
-      <c r="Z30" s="316"/>
+      <c r="Y30" s="281"/>
+      <c r="Z30" s="281"/>
       <c r="AA30" s="202"/>
       <c r="AB30" s="203"/>
       <c r="AE30"/>
       <c r="AF30"/>
     </row>
     <row r="31" spans="2:39" ht="22.5" customHeight="1">
-      <c r="B31" s="287">
+      <c r="B31" s="285">
         <f>G8*80%</f>
         <v>20</v>
       </c>
-      <c r="C31" s="287"/>
-      <c r="D31" s="287"/>
-      <c r="E31" s="282">
+      <c r="C31" s="285"/>
+      <c r="D31" s="285"/>
+      <c r="E31" s="284">
         <v>8</v>
       </c>
-      <c r="F31" s="282"/>
-      <c r="G31" s="282"/>
-      <c r="H31" s="282">
+      <c r="F31" s="284"/>
+      <c r="G31" s="284"/>
+      <c r="H31" s="284">
         <v>8</v>
       </c>
-      <c r="I31" s="282"/>
-      <c r="J31" s="282"/>
-      <c r="K31" s="282">
+      <c r="I31" s="284"/>
+      <c r="J31" s="284"/>
+      <c r="K31" s="284">
         <v>8</v>
       </c>
-      <c r="L31" s="282"/>
-      <c r="M31" s="282"/>
-      <c r="N31" s="282">
+      <c r="L31" s="284"/>
+      <c r="M31" s="284"/>
+      <c r="N31" s="284">
         <v>8</v>
       </c>
-      <c r="O31" s="282"/>
-      <c r="P31" s="282"/>
-      <c r="Q31" s="314">
+      <c r="O31" s="284"/>
+      <c r="P31" s="284"/>
+      <c r="Q31" s="282">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R31" s="314"/>
-      <c r="S31" s="314"/>
-      <c r="T31" s="315">
+      <c r="R31" s="282"/>
+      <c r="S31" s="282"/>
+      <c r="T31" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="315"/>
-      <c r="V31" s="315"/>
-      <c r="W31" s="315"/>
-      <c r="X31" s="316">
+      <c r="U31" s="283"/>
+      <c r="V31" s="283"/>
+      <c r="W31" s="283"/>
+      <c r="X31" s="281">
         <f t="shared" si="2"/>
         <v>-12</v>
       </c>
-      <c r="Y31" s="316"/>
-      <c r="Z31" s="316"/>
+      <c r="Y31" s="281"/>
+      <c r="Z31" s="281"/>
       <c r="AA31" s="202"/>
       <c r="AB31" s="203"/>
       <c r="AE31"/>
       <c r="AF31"/>
     </row>
     <row r="32" spans="2:39" ht="22.5" customHeight="1">
-      <c r="B32" s="287">
+      <c r="B32" s="285">
         <f>G8*90%</f>
         <v>22.5</v>
       </c>
-      <c r="C32" s="287"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="282">
+      <c r="C32" s="285"/>
+      <c r="D32" s="285"/>
+      <c r="E32" s="284">
         <v>9</v>
       </c>
-      <c r="F32" s="282"/>
-      <c r="G32" s="282"/>
-      <c r="H32" s="282">
+      <c r="F32" s="284"/>
+      <c r="G32" s="284"/>
+      <c r="H32" s="284">
         <v>9</v>
       </c>
-      <c r="I32" s="282"/>
-      <c r="J32" s="282"/>
-      <c r="K32" s="282">
+      <c r="I32" s="284"/>
+      <c r="J32" s="284"/>
+      <c r="K32" s="284">
         <v>9</v>
       </c>
-      <c r="L32" s="282"/>
-      <c r="M32" s="282"/>
-      <c r="N32" s="282">
+      <c r="L32" s="284"/>
+      <c r="M32" s="284"/>
+      <c r="N32" s="284">
         <v>9</v>
       </c>
-      <c r="O32" s="282"/>
-      <c r="P32" s="282"/>
-      <c r="Q32" s="314">
+      <c r="O32" s="284"/>
+      <c r="P32" s="284"/>
+      <c r="Q32" s="282">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="R32" s="314"/>
-      <c r="S32" s="314"/>
-      <c r="T32" s="315">
+      <c r="R32" s="282"/>
+      <c r="S32" s="282"/>
+      <c r="T32" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="315"/>
-      <c r="V32" s="315"/>
-      <c r="W32" s="315"/>
-      <c r="X32" s="316">
+      <c r="U32" s="283"/>
+      <c r="V32" s="283"/>
+      <c r="W32" s="283"/>
+      <c r="X32" s="281">
         <f t="shared" si="2"/>
         <v>-13.5</v>
       </c>
-      <c r="Y32" s="316"/>
-      <c r="Z32" s="316"/>
+      <c r="Y32" s="281"/>
+      <c r="Z32" s="281"/>
       <c r="AA32" s="202"/>
       <c r="AB32" s="203"/>
       <c r="AE32"/>
       <c r="AF32"/>
     </row>
     <row r="33" spans="1:32" ht="22.5" customHeight="1">
-      <c r="B33" s="287">
+      <c r="B33" s="285">
         <f>G8*100%</f>
         <v>25</v>
       </c>
-      <c r="C33" s="287"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="282">
+      <c r="C33" s="285"/>
+      <c r="D33" s="285"/>
+      <c r="E33" s="284">
         <v>10</v>
       </c>
-      <c r="F33" s="282"/>
-      <c r="G33" s="282"/>
-      <c r="H33" s="282">
+      <c r="F33" s="284"/>
+      <c r="G33" s="284"/>
+      <c r="H33" s="284">
         <v>10</v>
       </c>
-      <c r="I33" s="282"/>
-      <c r="J33" s="282"/>
-      <c r="K33" s="282">
+      <c r="I33" s="284"/>
+      <c r="J33" s="284"/>
+      <c r="K33" s="284">
         <v>10</v>
       </c>
-      <c r="L33" s="282"/>
-      <c r="M33" s="282"/>
-      <c r="N33" s="282">
+      <c r="L33" s="284"/>
+      <c r="M33" s="284"/>
+      <c r="N33" s="284">
         <v>10</v>
       </c>
-      <c r="O33" s="282"/>
-      <c r="P33" s="282"/>
-      <c r="Q33" s="314">
+      <c r="O33" s="284"/>
+      <c r="P33" s="284"/>
+      <c r="Q33" s="282">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="R33" s="314"/>
-      <c r="S33" s="314"/>
-      <c r="T33" s="315">
+      <c r="R33" s="282"/>
+      <c r="S33" s="282"/>
+      <c r="T33" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U33" s="315"/>
-      <c r="V33" s="315"/>
-      <c r="W33" s="315"/>
-      <c r="X33" s="316">
+      <c r="U33" s="283"/>
+      <c r="V33" s="283"/>
+      <c r="W33" s="283"/>
+      <c r="X33" s="281">
         <f t="shared" si="2"/>
         <v>-15</v>
       </c>
-      <c r="Y33" s="316"/>
-      <c r="Z33" s="316"/>
+      <c r="Y33" s="281"/>
+      <c r="Z33" s="281"/>
       <c r="AA33" s="202"/>
       <c r="AB33" s="203"/>
       <c r="AE33"/>
@@ -32784,19 +32784,19 @@
       <c r="AF34"/>
     </row>
     <row r="35" spans="1:32" ht="18.75" customHeight="1">
-      <c r="L35" s="310"/>
-      <c r="M35" s="310"/>
-      <c r="N35" s="310"/>
-      <c r="O35" s="310"/>
-      <c r="P35" s="310"/>
-      <c r="Q35" s="310"/>
-      <c r="R35" s="310"/>
-      <c r="S35" s="310"/>
-      <c r="T35" s="310"/>
-      <c r="U35" s="310"/>
-      <c r="V35" s="310"/>
-      <c r="W35" s="310"/>
-      <c r="X35" s="310"/>
+      <c r="L35" s="308"/>
+      <c r="M35" s="308"/>
+      <c r="N35" s="308"/>
+      <c r="O35" s="308"/>
+      <c r="P35" s="308"/>
+      <c r="Q35" s="308"/>
+      <c r="R35" s="308"/>
+      <c r="S35" s="308"/>
+      <c r="T35" s="308"/>
+      <c r="U35" s="308"/>
+      <c r="V35" s="308"/>
+      <c r="W35" s="308"/>
+      <c r="X35" s="308"/>
       <c r="Y35" s="63"/>
       <c r="Z35" s="63"/>
       <c r="AA35" s="63"/>
@@ -32961,34 +32961,93 @@
     </row>
   </sheetData>
   <mergeCells count="139">
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B17:D20"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="AD15:AF16"/>
+    <mergeCell ref="K15:N16"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="F5:AD5"/>
+    <mergeCell ref="T6:AD6"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="O9:AD9"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="O7:V7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="F11:P11"/>
+    <mergeCell ref="F12:P12"/>
+    <mergeCell ref="T11:AD11"/>
+    <mergeCell ref="T12:AD12"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:P22"/>
+    <mergeCell ref="Q22:S23"/>
+    <mergeCell ref="T22:W23"/>
+    <mergeCell ref="X22:Z23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="H31:J31"/>
@@ -33013,93 +33072,34 @@
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="K31:M31"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:P22"/>
-    <mergeCell ref="Q22:S23"/>
-    <mergeCell ref="T22:W23"/>
-    <mergeCell ref="X22:Z23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="F11:P11"/>
-    <mergeCell ref="F12:P12"/>
-    <mergeCell ref="T11:AD11"/>
-    <mergeCell ref="T12:AD12"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="F5:AD5"/>
-    <mergeCell ref="T6:AD6"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="O9:AD9"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="O7:V7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="E15:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B17:D20"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="H15:J16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="AD15:AF16"/>
-    <mergeCell ref="K15:N16"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="X33:Z33"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="98" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -33735,32 +33735,32 @@
     <row r="1" spans="1:27" ht="13.5" customHeight="1"/>
     <row r="2" spans="1:27" ht="14.1" customHeight="1"/>
     <row r="3" spans="1:27" ht="35.450000000000003" customHeight="1">
-      <c r="A3" s="334" t="s">
+      <c r="A3" s="339" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="334"/>
-      <c r="X3" s="334"/>
+      <c r="B3" s="339"/>
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="339"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="339"/>
+      <c r="I3" s="339"/>
+      <c r="J3" s="339"/>
+      <c r="K3" s="339"/>
+      <c r="L3" s="339"/>
+      <c r="M3" s="339"/>
+      <c r="N3" s="339"/>
+      <c r="O3" s="339"/>
+      <c r="P3" s="339"/>
+      <c r="Q3" s="339"/>
+      <c r="R3" s="339"/>
+      <c r="S3" s="339"/>
+      <c r="T3" s="339"/>
+      <c r="U3" s="339"/>
+      <c r="V3" s="339"/>
+      <c r="W3" s="339"/>
+      <c r="X3" s="339"/>
     </row>
     <row r="4" spans="1:27" s="66" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="65"/>
@@ -34074,14 +34074,14 @@
       <c r="I14" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="335">
+      <c r="J14" s="340">
         <f>'Data Record'!D7</f>
         <v>123</v>
       </c>
-      <c r="K14" s="335"/>
-      <c r="L14" s="335"/>
-      <c r="M14" s="335"/>
-      <c r="N14" s="335"/>
+      <c r="K14" s="340"/>
+      <c r="L14" s="340"/>
+      <c r="M14" s="340"/>
+      <c r="N14" s="340"/>
       <c r="P14" s="73"/>
       <c r="Q14" s="99"/>
       <c r="R14" s="99"/>
@@ -34106,15 +34106,15 @@
       <c r="I15" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="336">
+      <c r="J15" s="341">
         <f>'Data Record'!O7</f>
         <v>456</v>
       </c>
-      <c r="K15" s="336"/>
-      <c r="L15" s="336"/>
-      <c r="M15" s="336"/>
-      <c r="N15" s="336"/>
-      <c r="O15" s="336"/>
+      <c r="K15" s="341"/>
+      <c r="L15" s="341"/>
+      <c r="M15" s="341"/>
+      <c r="N15" s="341"/>
+      <c r="O15" s="341"/>
       <c r="P15" s="73"/>
       <c r="Q15" s="73"/>
       <c r="R15" s="99"/>
@@ -34138,14 +34138,14 @@
       <c r="I16" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="337">
+      <c r="J16" s="342">
         <f>'Data Record'!Y7</f>
         <v>789</v>
       </c>
-      <c r="K16" s="337"/>
-      <c r="L16" s="337"/>
-      <c r="M16" s="337"/>
-      <c r="N16" s="337"/>
+      <c r="K16" s="342"/>
+      <c r="L16" s="342"/>
+      <c r="M16" s="342"/>
+      <c r="N16" s="342"/>
       <c r="P16" s="73"/>
       <c r="Q16" s="73"/>
       <c r="R16" s="99"/>
@@ -34228,12 +34228,12 @@
       <c r="V19" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="333">
+      <c r="W19" s="338">
         <f>'Data Record'!O2</f>
         <v>42387</v>
       </c>
-      <c r="X19" s="333"/>
-      <c r="Y19" s="333"/>
+      <c r="X19" s="338"/>
+      <c r="Y19" s="338"/>
       <c r="Z19" s="222"/>
       <c r="AA19" s="222"/>
     </row>
@@ -34266,12 +34266,12 @@
       <c r="V20" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="W20" s="333">
+      <c r="W20" s="338">
         <f>'Data Record'!Y2</f>
         <v>42388</v>
       </c>
-      <c r="X20" s="333"/>
-      <c r="Y20" s="333"/>
+      <c r="X20" s="338"/>
+      <c r="Y20" s="338"/>
       <c r="Z20" s="222"/>
       <c r="AA20" s="222"/>
     </row>
@@ -34304,12 +34304,12 @@
       <c r="V21" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="W21" s="338">
+      <c r="W21" s="333">
         <f>W20+365</f>
         <v>42753</v>
       </c>
-      <c r="X21" s="338"/>
-      <c r="Y21" s="338"/>
+      <c r="X21" s="333"/>
+      <c r="Y21" s="333"/>
       <c r="Z21" s="225"/>
       <c r="AA21" s="225"/>
     </row>
@@ -34651,12 +34651,12 @@
       <c r="G35" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="339">
+      <c r="H35" s="334">
         <f>W20+1</f>
         <v>42389</v>
       </c>
-      <c r="I35" s="339"/>
-      <c r="J35" s="339"/>
+      <c r="I35" s="334"/>
+      <c r="J35" s="334"/>
       <c r="K35" s="227"/>
       <c r="L35" s="208"/>
       <c r="M35" s="208"/>
@@ -34709,17 +34709,17 @@
         <v>3</v>
       </c>
       <c r="R36" s="208"/>
-      <c r="S36" s="340" t="str">
+      <c r="S36" s="335" t="str">
         <f>IF(Q36=1,"( Mr.Sombut Srikampa )",IF(Q36=3,"( Mr. Natthaphol Boonmee )"))</f>
         <v>( Mr. Natthaphol Boonmee )</v>
       </c>
-      <c r="T36" s="340"/>
-      <c r="U36" s="340"/>
-      <c r="V36" s="340"/>
-      <c r="W36" s="340"/>
-      <c r="X36" s="340"/>
-      <c r="Y36" s="340"/>
-      <c r="Z36" s="340"/>
+      <c r="T36" s="335"/>
+      <c r="U36" s="335"/>
+      <c r="V36" s="335"/>
+      <c r="W36" s="335"/>
+      <c r="X36" s="335"/>
+      <c r="Y36" s="335"/>
+      <c r="Z36" s="335"/>
       <c r="AA36" s="121"/>
       <c r="AE36" s="226"/>
       <c r="AF36" s="173"/>
@@ -34747,16 +34747,16 @@
       <c r="P37" s="208"/>
       <c r="Q37" s="208"/>
       <c r="R37" s="208"/>
-      <c r="S37" s="341" t="s">
+      <c r="S37" s="336" t="s">
         <v>43</v>
       </c>
-      <c r="T37" s="341"/>
-      <c r="U37" s="341"/>
-      <c r="V37" s="341"/>
-      <c r="W37" s="341"/>
-      <c r="X37" s="341"/>
-      <c r="Y37" s="341"/>
-      <c r="Z37" s="341"/>
+      <c r="T37" s="336"/>
+      <c r="U37" s="336"/>
+      <c r="V37" s="336"/>
+      <c r="W37" s="336"/>
+      <c r="X37" s="336"/>
+      <c r="Y37" s="336"/>
+      <c r="Z37" s="336"/>
       <c r="AA37" s="121"/>
       <c r="AB37" s="71"/>
       <c r="AC37" s="234"/>
@@ -34791,28 +34791,28 @@
       <c r="AA38" s="121"/>
     </row>
     <row r="39" spans="1:36" s="66" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="342"/>
-      <c r="B39" s="342"/>
-      <c r="C39" s="342"/>
-      <c r="D39" s="342"/>
-      <c r="E39" s="342"/>
-      <c r="F39" s="342"/>
-      <c r="G39" s="342"/>
-      <c r="H39" s="342"/>
-      <c r="I39" s="342"/>
-      <c r="J39" s="342"/>
-      <c r="K39" s="342"/>
-      <c r="L39" s="342"/>
-      <c r="M39" s="342"/>
-      <c r="N39" s="342"/>
-      <c r="O39" s="342"/>
-      <c r="P39" s="342"/>
-      <c r="Q39" s="342"/>
-      <c r="R39" s="342"/>
-      <c r="S39" s="342"/>
-      <c r="T39" s="342"/>
-      <c r="U39" s="342"/>
-      <c r="V39" s="342"/>
+      <c r="A39" s="337"/>
+      <c r="B39" s="337"/>
+      <c r="C39" s="337"/>
+      <c r="D39" s="337"/>
+      <c r="E39" s="337"/>
+      <c r="F39" s="337"/>
+      <c r="G39" s="337"/>
+      <c r="H39" s="337"/>
+      <c r="I39" s="337"/>
+      <c r="J39" s="337"/>
+      <c r="K39" s="337"/>
+      <c r="L39" s="337"/>
+      <c r="M39" s="337"/>
+      <c r="N39" s="337"/>
+      <c r="O39" s="337"/>
+      <c r="P39" s="337"/>
+      <c r="Q39" s="337"/>
+      <c r="R39" s="337"/>
+      <c r="S39" s="337"/>
+      <c r="T39" s="337"/>
+      <c r="U39" s="337"/>
+      <c r="V39" s="337"/>
       <c r="W39" s="128"/>
     </row>
     <row r="40" spans="1:36" ht="18.75" customHeight="1">
@@ -34868,17 +34868,17 @@
     <row r="58" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="S36:Z36"/>
-    <mergeCell ref="S37:Z37"/>
-    <mergeCell ref="A39:V39"/>
     <mergeCell ref="W20:Y20"/>
     <mergeCell ref="A3:X3"/>
     <mergeCell ref="J14:N14"/>
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="S36:Z36"/>
+    <mergeCell ref="S37:Z37"/>
+    <mergeCell ref="A39:V39"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -34960,30 +34960,30 @@
       <c r="V2" s="64"/>
     </row>
     <row r="3" spans="1:22" ht="34.5" customHeight="1">
-      <c r="A3" s="345" t="s">
+      <c r="A3" s="349" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
-      <c r="G3" s="345"/>
-      <c r="H3" s="345"/>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="345"/>
-      <c r="Q3" s="345"/>
-      <c r="R3" s="345"/>
-      <c r="S3" s="345"/>
-      <c r="T3" s="345"/>
-      <c r="U3" s="345"/>
-      <c r="V3" s="345"/>
+      <c r="B3" s="349"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="349"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="349"/>
+      <c r="H3" s="349"/>
+      <c r="I3" s="349"/>
+      <c r="J3" s="349"/>
+      <c r="K3" s="349"/>
+      <c r="L3" s="349"/>
+      <c r="M3" s="349"/>
+      <c r="N3" s="349"/>
+      <c r="O3" s="349"/>
+      <c r="P3" s="349"/>
+      <c r="Q3" s="349"/>
+      <c r="R3" s="349"/>
+      <c r="S3" s="349"/>
+      <c r="T3" s="349"/>
+      <c r="U3" s="349"/>
+      <c r="V3" s="349"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
       <c r="A4" s="65"/>
@@ -35035,11 +35035,11 @@
       <c r="P5" s="73"/>
       <c r="Q5" s="73"/>
       <c r="R5" s="64"/>
-      <c r="S5" s="346" t="s">
+      <c r="S5" s="350" t="s">
         <v>111</v>
       </c>
-      <c r="T5" s="346"/>
-      <c r="U5" s="346"/>
+      <c r="T5" s="350"/>
+      <c r="U5" s="350"/>
       <c r="V5" s="66"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1">
@@ -35098,16 +35098,16 @@
       <c r="E8" s="70"/>
       <c r="F8" s="70"/>
       <c r="G8" s="70"/>
-      <c r="H8" s="347" t="s">
+      <c r="H8" s="351" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="347"/>
-      <c r="J8" s="347"/>
-      <c r="K8" s="347"/>
-      <c r="L8" s="347"/>
-      <c r="M8" s="347"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="347"/>
+      <c r="I8" s="351"/>
+      <c r="J8" s="351"/>
+      <c r="K8" s="351"/>
+      <c r="L8" s="351"/>
+      <c r="M8" s="351"/>
+      <c r="N8" s="351"/>
+      <c r="O8" s="351"/>
       <c r="P8" s="83"/>
       <c r="Q8" s="83"/>
       <c r="R8" s="83"/>
@@ -35124,14 +35124,14 @@
       <c r="E9" s="70"/>
       <c r="F9" s="70"/>
       <c r="G9" s="70"/>
-      <c r="H9" s="347"/>
-      <c r="I9" s="347"/>
-      <c r="J9" s="347"/>
-      <c r="K9" s="347"/>
-      <c r="L9" s="347"/>
-      <c r="M9" s="347"/>
-      <c r="N9" s="347"/>
-      <c r="O9" s="347"/>
+      <c r="H9" s="351"/>
+      <c r="I9" s="351"/>
+      <c r="J9" s="351"/>
+      <c r="K9" s="351"/>
+      <c r="L9" s="351"/>
+      <c r="M9" s="351"/>
+      <c r="N9" s="351"/>
+      <c r="O9" s="351"/>
       <c r="P9" s="83"/>
       <c r="Q9" s="83"/>
       <c r="R9" s="83"/>
@@ -35166,70 +35166,70 @@
     </row>
     <row r="11" spans="1:22" ht="23.1" customHeight="1">
       <c r="A11" s="67"/>
-      <c r="B11" s="348" t="s">
+      <c r="B11" s="352" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="349"/>
-      <c r="D11" s="349"/>
-      <c r="E11" s="349"/>
-      <c r="F11" s="349"/>
-      <c r="G11" s="350"/>
-      <c r="H11" s="348" t="s">
+      <c r="C11" s="353"/>
+      <c r="D11" s="353"/>
+      <c r="E11" s="353"/>
+      <c r="F11" s="353"/>
+      <c r="G11" s="354"/>
+      <c r="H11" s="352" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="349"/>
-      <c r="J11" s="350"/>
-      <c r="K11" s="348" t="s">
+      <c r="I11" s="353"/>
+      <c r="J11" s="354"/>
+      <c r="K11" s="352" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="349"/>
-      <c r="M11" s="350"/>
-      <c r="N11" s="348" t="s">
+      <c r="L11" s="353"/>
+      <c r="M11" s="354"/>
+      <c r="N11" s="352" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="349"/>
-      <c r="P11" s="349"/>
-      <c r="Q11" s="350"/>
-      <c r="R11" s="349" t="s">
+      <c r="O11" s="353"/>
+      <c r="P11" s="353"/>
+      <c r="Q11" s="354"/>
+      <c r="R11" s="353" t="s">
         <v>47</v>
       </c>
-      <c r="S11" s="349"/>
-      <c r="T11" s="349"/>
-      <c r="U11" s="350"/>
+      <c r="S11" s="353"/>
+      <c r="T11" s="353"/>
+      <c r="U11" s="354"/>
       <c r="V11" s="66"/>
     </row>
     <row r="12" spans="1:22" ht="23.1" customHeight="1">
       <c r="A12" s="67"/>
-      <c r="B12" s="351" t="s">
+      <c r="B12" s="355" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="352"/>
-      <c r="D12" s="352"/>
-      <c r="E12" s="352"/>
-      <c r="F12" s="352"/>
-      <c r="G12" s="352"/>
-      <c r="H12" s="353" t="s">
+      <c r="C12" s="356"/>
+      <c r="D12" s="356"/>
+      <c r="E12" s="356"/>
+      <c r="F12" s="356"/>
+      <c r="G12" s="356"/>
+      <c r="H12" s="357" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="354"/>
-      <c r="J12" s="355"/>
-      <c r="K12" s="353">
+      <c r="I12" s="358"/>
+      <c r="J12" s="359"/>
+      <c r="K12" s="357">
         <v>60711</v>
       </c>
-      <c r="L12" s="354"/>
-      <c r="M12" s="355"/>
-      <c r="N12" s="356" t="s">
+      <c r="L12" s="358"/>
+      <c r="M12" s="359"/>
+      <c r="N12" s="360" t="s">
         <v>114</v>
       </c>
-      <c r="O12" s="357"/>
-      <c r="P12" s="357"/>
-      <c r="Q12" s="358"/>
-      <c r="R12" s="359">
+      <c r="O12" s="361"/>
+      <c r="P12" s="361"/>
+      <c r="Q12" s="362"/>
+      <c r="R12" s="363">
         <v>42336</v>
       </c>
-      <c r="S12" s="360"/>
-      <c r="T12" s="360"/>
-      <c r="U12" s="361"/>
+      <c r="S12" s="364"/>
+      <c r="T12" s="364"/>
+      <c r="U12" s="365"/>
       <c r="V12" s="101"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1">
@@ -35370,10 +35370,10 @@
       <c r="G18" s="70"/>
       <c r="H18" s="70"/>
       <c r="I18" s="98"/>
-      <c r="J18" s="343"/>
-      <c r="K18" s="344"/>
-      <c r="L18" s="344"/>
-      <c r="M18" s="344"/>
+      <c r="J18" s="348"/>
+      <c r="K18" s="343"/>
+      <c r="L18" s="343"/>
+      <c r="M18" s="343"/>
       <c r="N18" s="66"/>
       <c r="O18" s="99"/>
       <c r="P18" s="99"/>
@@ -35394,10 +35394,10 @@
       <c r="G19" s="70"/>
       <c r="H19" s="70"/>
       <c r="I19" s="98"/>
-      <c r="J19" s="344"/>
-      <c r="K19" s="344"/>
-      <c r="L19" s="344"/>
-      <c r="M19" s="344"/>
+      <c r="J19" s="343"/>
+      <c r="K19" s="343"/>
+      <c r="L19" s="343"/>
+      <c r="M19" s="343"/>
       <c r="N19" s="66"/>
       <c r="O19" s="99"/>
       <c r="P19" s="99"/>
@@ -35846,16 +35846,16 @@
       <c r="C38" s="94"/>
       <c r="D38" s="94"/>
       <c r="E38" s="94"/>
-      <c r="F38" s="362"/>
-      <c r="G38" s="362"/>
-      <c r="H38" s="362"/>
-      <c r="I38" s="362"/>
+      <c r="F38" s="344"/>
+      <c r="G38" s="344"/>
+      <c r="H38" s="344"/>
+      <c r="I38" s="344"/>
       <c r="J38" s="125"/>
       <c r="K38" s="94"/>
-      <c r="L38" s="363"/>
-      <c r="M38" s="363"/>
-      <c r="N38" s="363"/>
-      <c r="O38" s="363"/>
+      <c r="L38" s="345"/>
+      <c r="M38" s="345"/>
+      <c r="N38" s="345"/>
+      <c r="O38" s="345"/>
       <c r="P38" s="72"/>
       <c r="Q38" s="72"/>
       <c r="R38" s="72"/>
@@ -35904,11 +35904,11 @@
       <c r="M40" s="86"/>
       <c r="N40" s="86"/>
       <c r="O40" s="86"/>
-      <c r="P40" s="364"/>
-      <c r="Q40" s="364"/>
-      <c r="R40" s="364"/>
-      <c r="S40" s="364"/>
-      <c r="T40" s="364"/>
+      <c r="P40" s="346"/>
+      <c r="Q40" s="346"/>
+      <c r="R40" s="346"/>
+      <c r="S40" s="346"/>
+      <c r="T40" s="346"/>
       <c r="U40" s="121"/>
       <c r="V40" s="121"/>
     </row>
@@ -35928,11 +35928,11 @@
       <c r="M41" s="86"/>
       <c r="N41" s="86"/>
       <c r="O41" s="86"/>
-      <c r="P41" s="364"/>
-      <c r="Q41" s="364"/>
-      <c r="R41" s="364"/>
-      <c r="S41" s="364"/>
-      <c r="T41" s="364"/>
+      <c r="P41" s="346"/>
+      <c r="Q41" s="346"/>
+      <c r="R41" s="346"/>
+      <c r="S41" s="346"/>
+      <c r="T41" s="346"/>
       <c r="U41" s="121"/>
       <c r="V41" s="121"/>
     </row>
@@ -35940,11 +35940,11 @@
       <c r="A42" s="67"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66"/>
-      <c r="D42" s="365"/>
-      <c r="E42" s="365"/>
-      <c r="F42" s="365"/>
-      <c r="G42" s="365"/>
-      <c r="H42" s="365"/>
+      <c r="D42" s="347"/>
+      <c r="E42" s="347"/>
+      <c r="F42" s="347"/>
+      <c r="G42" s="347"/>
+      <c r="H42" s="347"/>
       <c r="I42" s="66"/>
       <c r="J42" s="66"/>
       <c r="K42" s="86"/>
@@ -35961,26 +35961,26 @@
       <c r="V42" s="121"/>
     </row>
     <row r="43" spans="1:22" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="342"/>
-      <c r="B43" s="342"/>
-      <c r="C43" s="342"/>
-      <c r="D43" s="342"/>
-      <c r="E43" s="342"/>
-      <c r="F43" s="342"/>
-      <c r="G43" s="342"/>
-      <c r="H43" s="342"/>
-      <c r="I43" s="342"/>
-      <c r="J43" s="342"/>
-      <c r="K43" s="342"/>
-      <c r="L43" s="342"/>
-      <c r="M43" s="342"/>
-      <c r="N43" s="342"/>
-      <c r="O43" s="342"/>
-      <c r="P43" s="342"/>
-      <c r="Q43" s="342"/>
-      <c r="R43" s="342"/>
-      <c r="S43" s="342"/>
-      <c r="T43" s="342"/>
+      <c r="A43" s="337"/>
+      <c r="B43" s="337"/>
+      <c r="C43" s="337"/>
+      <c r="D43" s="337"/>
+      <c r="E43" s="337"/>
+      <c r="F43" s="337"/>
+      <c r="G43" s="337"/>
+      <c r="H43" s="337"/>
+      <c r="I43" s="337"/>
+      <c r="J43" s="337"/>
+      <c r="K43" s="337"/>
+      <c r="L43" s="337"/>
+      <c r="M43" s="337"/>
+      <c r="N43" s="337"/>
+      <c r="O43" s="337"/>
+      <c r="P43" s="337"/>
+      <c r="Q43" s="337"/>
+      <c r="R43" s="337"/>
+      <c r="S43" s="337"/>
+      <c r="T43" s="337"/>
       <c r="U43" s="128"/>
       <c r="V43" s="66"/>
     </row>
@@ -36107,13 +36107,6 @@
     <row r="164" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A43:T43"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="D42:H42"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="A3:V3"/>
     <mergeCell ref="S5:U5"/>
@@ -36128,6 +36121,13 @@
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="N12:Q12"/>
     <mergeCell ref="R12:U12"/>
+    <mergeCell ref="A43:T43"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="D42:H42"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -36200,30 +36200,30 @@
       <c r="U2" s="129"/>
     </row>
     <row r="3" spans="1:22" ht="34.5" customHeight="1">
-      <c r="A3" s="372" t="s">
+      <c r="A3" s="405" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="372"/>
-      <c r="C3" s="372"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="372"/>
-      <c r="F3" s="372"/>
-      <c r="G3" s="372"/>
-      <c r="H3" s="372"/>
-      <c r="I3" s="372"/>
-      <c r="J3" s="372"/>
-      <c r="K3" s="372"/>
-      <c r="L3" s="372"/>
-      <c r="M3" s="372"/>
-      <c r="N3" s="372"/>
-      <c r="O3" s="372"/>
-      <c r="P3" s="372"/>
-      <c r="Q3" s="372"/>
-      <c r="R3" s="372"/>
-      <c r="S3" s="372"/>
-      <c r="T3" s="372"/>
-      <c r="U3" s="372"/>
-      <c r="V3" s="372"/>
+      <c r="B3" s="405"/>
+      <c r="C3" s="405"/>
+      <c r="D3" s="405"/>
+      <c r="E3" s="405"/>
+      <c r="F3" s="405"/>
+      <c r="G3" s="405"/>
+      <c r="H3" s="405"/>
+      <c r="I3" s="405"/>
+      <c r="J3" s="405"/>
+      <c r="K3" s="405"/>
+      <c r="L3" s="405"/>
+      <c r="M3" s="405"/>
+      <c r="N3" s="405"/>
+      <c r="O3" s="405"/>
+      <c r="P3" s="405"/>
+      <c r="Q3" s="405"/>
+      <c r="R3" s="405"/>
+      <c r="S3" s="405"/>
+      <c r="T3" s="405"/>
+      <c r="U3" s="405"/>
+      <c r="V3" s="405"/>
     </row>
     <row r="4" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="129"/>
@@ -36316,10 +36316,10 @@
       <c r="L7" s="131"/>
       <c r="M7" s="131"/>
       <c r="N7" s="131"/>
-      <c r="O7" s="385" t="s">
+      <c r="O7" s="400" t="s">
         <v>127</v>
       </c>
-      <c r="P7" s="385"/>
+      <c r="P7" s="400"/>
       <c r="Q7" s="277" t="s">
         <v>10</v>
       </c>
@@ -36333,27 +36333,27 @@
       <c r="B8" s="134"/>
       <c r="C8" s="134"/>
       <c r="D8" s="134"/>
-      <c r="E8" s="294" t="s">
+      <c r="E8" s="330" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="285"/>
-      <c r="G8" s="285"/>
-      <c r="H8" s="285" t="s">
+      <c r="F8" s="329"/>
+      <c r="G8" s="329"/>
+      <c r="H8" s="329" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="285"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="288" t="s">
+      <c r="I8" s="329"/>
+      <c r="J8" s="329"/>
+      <c r="K8" s="286" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="289"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="386" t="s">
+      <c r="L8" s="287"/>
+      <c r="M8" s="294"/>
+      <c r="N8" s="418" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="386"/>
-      <c r="P8" s="386"/>
-      <c r="Q8" s="386"/>
+      <c r="O8" s="418"/>
+      <c r="P8" s="418"/>
+      <c r="Q8" s="418"/>
       <c r="R8" s="132"/>
       <c r="S8" s="130"/>
       <c r="T8" s="130"/>
@@ -36364,19 +36364,19 @@
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
       <c r="D9" s="134"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="285"/>
-      <c r="G9" s="285"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="291"/>
-      <c r="L9" s="292"/>
-      <c r="M9" s="293"/>
-      <c r="N9" s="386"/>
-      <c r="O9" s="386"/>
-      <c r="P9" s="386"/>
-      <c r="Q9" s="386"/>
+      <c r="E9" s="329"/>
+      <c r="F9" s="329"/>
+      <c r="G9" s="329"/>
+      <c r="H9" s="329"/>
+      <c r="I9" s="329"/>
+      <c r="J9" s="329"/>
+      <c r="K9" s="288"/>
+      <c r="L9" s="289"/>
+      <c r="M9" s="295"/>
+      <c r="N9" s="418"/>
+      <c r="O9" s="418"/>
+      <c r="P9" s="418"/>
+      <c r="Q9" s="418"/>
       <c r="R9" s="132"/>
       <c r="S9" s="130"/>
       <c r="T9" s="130"/>
@@ -36387,29 +36387,29 @@
       <c r="B10" s="134"/>
       <c r="C10" s="134"/>
       <c r="D10" s="134"/>
-      <c r="E10" s="287">
+      <c r="E10" s="285">
         <f>'Data Record'!B17</f>
         <v>2.5</v>
       </c>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="387">
+      <c r="F10" s="285"/>
+      <c r="G10" s="285"/>
+      <c r="H10" s="419">
         <v>1</v>
       </c>
-      <c r="I10" s="387"/>
-      <c r="J10" s="387"/>
-      <c r="K10" s="398">
+      <c r="I10" s="419"/>
+      <c r="J10" s="419"/>
+      <c r="K10" s="403">
         <v>2.5009999999999999</v>
       </c>
-      <c r="L10" s="399"/>
-      <c r="M10" s="399"/>
-      <c r="N10" s="399">
+      <c r="L10" s="404"/>
+      <c r="M10" s="404"/>
+      <c r="N10" s="404">
         <f>K10-E10</f>
         <v>9.9999999999988987E-4</v>
       </c>
-      <c r="O10" s="399"/>
-      <c r="P10" s="399"/>
-      <c r="Q10" s="399"/>
+      <c r="O10" s="404"/>
+      <c r="P10" s="404"/>
+      <c r="Q10" s="404"/>
       <c r="R10" s="132"/>
       <c r="S10" s="130"/>
       <c r="T10" s="130"/>
@@ -36420,26 +36420,26 @@
       <c r="B11" s="134"/>
       <c r="C11" s="134"/>
       <c r="D11" s="134"/>
-      <c r="E11" s="287"/>
-      <c r="F11" s="287"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="400">
+      <c r="E11" s="285"/>
+      <c r="F11" s="285"/>
+      <c r="G11" s="285"/>
+      <c r="H11" s="379">
         <v>2</v>
       </c>
-      <c r="I11" s="400"/>
-      <c r="J11" s="400"/>
-      <c r="K11" s="396">
+      <c r="I11" s="379"/>
+      <c r="J11" s="379"/>
+      <c r="K11" s="402">
         <v>2.5</v>
       </c>
-      <c r="L11" s="397"/>
-      <c r="M11" s="397"/>
-      <c r="N11" s="397">
+      <c r="L11" s="378"/>
+      <c r="M11" s="378"/>
+      <c r="N11" s="378">
         <f>K11-E10</f>
         <v>0</v>
       </c>
-      <c r="O11" s="397"/>
-      <c r="P11" s="397"/>
-      <c r="Q11" s="397"/>
+      <c r="O11" s="378"/>
+      <c r="P11" s="378"/>
+      <c r="Q11" s="378"/>
       <c r="R11" s="132"/>
       <c r="S11" s="130"/>
       <c r="T11" s="130"/>
@@ -36447,29 +36447,29 @@
     </row>
     <row r="12" spans="1:22" s="244" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="130"/>
-      <c r="B12" s="395"/>
-      <c r="C12" s="395"/>
-      <c r="D12" s="395"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="400">
+      <c r="B12" s="401"/>
+      <c r="C12" s="401"/>
+      <c r="D12" s="401"/>
+      <c r="E12" s="285"/>
+      <c r="F12" s="285"/>
+      <c r="G12" s="285"/>
+      <c r="H12" s="379">
         <v>3</v>
       </c>
-      <c r="I12" s="400"/>
-      <c r="J12" s="400"/>
-      <c r="K12" s="396">
+      <c r="I12" s="379"/>
+      <c r="J12" s="379"/>
+      <c r="K12" s="402">
         <v>2.5</v>
       </c>
-      <c r="L12" s="397"/>
-      <c r="M12" s="397"/>
-      <c r="N12" s="397">
+      <c r="L12" s="378"/>
+      <c r="M12" s="378"/>
+      <c r="N12" s="378">
         <f>K12-E10</f>
         <v>0</v>
       </c>
-      <c r="O12" s="397"/>
-      <c r="P12" s="397"/>
-      <c r="Q12" s="397"/>
+      <c r="O12" s="378"/>
+      <c r="P12" s="378"/>
+      <c r="Q12" s="378"/>
       <c r="R12" s="130"/>
       <c r="S12" s="130"/>
       <c r="T12" s="130"/>
@@ -36479,26 +36479,26 @@
       <c r="A13" s="130"/>
       <c r="C13" s="135"/>
       <c r="D13" s="135"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="388">
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="420">
         <v>4</v>
       </c>
-      <c r="I13" s="388"/>
-      <c r="J13" s="388"/>
-      <c r="K13" s="389">
+      <c r="I13" s="420"/>
+      <c r="J13" s="420"/>
+      <c r="K13" s="421">
         <v>2.5</v>
       </c>
-      <c r="L13" s="390"/>
-      <c r="M13" s="390"/>
-      <c r="N13" s="390">
+      <c r="L13" s="399"/>
+      <c r="M13" s="399"/>
+      <c r="N13" s="399">
         <f>K13-E10</f>
         <v>0</v>
       </c>
-      <c r="O13" s="390"/>
-      <c r="P13" s="390"/>
-      <c r="Q13" s="390"/>
+      <c r="O13" s="399"/>
+      <c r="P13" s="399"/>
+      <c r="Q13" s="399"/>
       <c r="R13" s="130"/>
       <c r="S13" s="129"/>
       <c r="T13" s="129"/>
@@ -36543,10 +36543,10 @@
       <c r="L15" s="129"/>
       <c r="M15" s="129"/>
       <c r="N15" s="129"/>
-      <c r="O15" s="385" t="s">
+      <c r="O15" s="400" t="s">
         <v>127</v>
       </c>
-      <c r="P15" s="385"/>
+      <c r="P15" s="400"/>
       <c r="Q15" s="277" t="s">
         <v>10</v>
       </c>
@@ -36560,27 +36560,27 @@
       <c r="B16" s="130"/>
       <c r="C16" s="130"/>
       <c r="D16" s="130"/>
-      <c r="E16" s="373" t="s">
+      <c r="E16" s="406" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="374"/>
-      <c r="G16" s="375"/>
-      <c r="H16" s="373" t="s">
+      <c r="F16" s="407"/>
+      <c r="G16" s="408"/>
+      <c r="H16" s="406" t="s">
         <v>126</v>
       </c>
-      <c r="I16" s="374"/>
-      <c r="J16" s="375"/>
-      <c r="K16" s="379" t="s">
+      <c r="I16" s="407"/>
+      <c r="J16" s="408"/>
+      <c r="K16" s="412" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="380"/>
-      <c r="M16" s="381"/>
-      <c r="N16" s="373" t="s">
+      <c r="L16" s="413"/>
+      <c r="M16" s="414"/>
+      <c r="N16" s="406" t="s">
         <v>125</v>
       </c>
-      <c r="O16" s="374"/>
-      <c r="P16" s="374"/>
-      <c r="Q16" s="375"/>
+      <c r="O16" s="407"/>
+      <c r="P16" s="407"/>
+      <c r="Q16" s="408"/>
       <c r="R16" s="130"/>
       <c r="S16" s="130"/>
       <c r="T16" s="140"/>
@@ -36591,19 +36591,19 @@
       <c r="B17" s="130"/>
       <c r="C17" s="130"/>
       <c r="D17" s="130"/>
-      <c r="E17" s="376"/>
-      <c r="F17" s="377"/>
-      <c r="G17" s="378"/>
-      <c r="H17" s="376"/>
-      <c r="I17" s="377"/>
-      <c r="J17" s="378"/>
-      <c r="K17" s="382"/>
-      <c r="L17" s="383"/>
-      <c r="M17" s="384"/>
-      <c r="N17" s="376"/>
-      <c r="O17" s="377"/>
-      <c r="P17" s="377"/>
-      <c r="Q17" s="378"/>
+      <c r="E17" s="409"/>
+      <c r="F17" s="410"/>
+      <c r="G17" s="411"/>
+      <c r="H17" s="409"/>
+      <c r="I17" s="410"/>
+      <c r="J17" s="411"/>
+      <c r="K17" s="415"/>
+      <c r="L17" s="416"/>
+      <c r="M17" s="417"/>
+      <c r="N17" s="409"/>
+      <c r="O17" s="410"/>
+      <c r="P17" s="410"/>
+      <c r="Q17" s="411"/>
       <c r="R17" s="130"/>
       <c r="S17" s="130"/>
       <c r="T17" s="140"/>
@@ -36613,31 +36613,31 @@
       <c r="A18" s="245"/>
       <c r="B18" s="246"/>
       <c r="C18" s="246"/>
-      <c r="E18" s="401">
+      <c r="E18" s="380">
         <f>'Data Record'!B24</f>
         <v>2.5</v>
       </c>
-      <c r="F18" s="402"/>
-      <c r="G18" s="403"/>
-      <c r="H18" s="404">
+      <c r="F18" s="381"/>
+      <c r="G18" s="382"/>
+      <c r="H18" s="383">
         <f>'Data Record'!Q24</f>
         <v>1</v>
       </c>
-      <c r="I18" s="405"/>
-      <c r="J18" s="406"/>
-      <c r="K18" s="404">
+      <c r="I18" s="384"/>
+      <c r="J18" s="385"/>
+      <c r="K18" s="383">
         <f>'Data Record'!X24</f>
         <v>-1.5</v>
       </c>
-      <c r="L18" s="405"/>
-      <c r="M18" s="406"/>
-      <c r="N18" s="413">
+      <c r="L18" s="384"/>
+      <c r="M18" s="385"/>
+      <c r="N18" s="386">
         <f>'Uncertainty Budget 0 to 25mm'!O7</f>
         <v>0.58140813261139268</v>
       </c>
-      <c r="O18" s="414"/>
-      <c r="P18" s="414"/>
-      <c r="Q18" s="415"/>
+      <c r="O18" s="387"/>
+      <c r="P18" s="387"/>
+      <c r="Q18" s="388"/>
       <c r="R18" s="250"/>
       <c r="S18" s="245"/>
       <c r="T18" s="245"/>
@@ -36647,31 +36647,31 @@
       <c r="A19" s="245"/>
       <c r="B19" s="247"/>
       <c r="C19" s="247"/>
-      <c r="E19" s="369">
+      <c r="E19" s="375">
         <f>'Data Record'!B25</f>
         <v>5</v>
       </c>
-      <c r="F19" s="370"/>
-      <c r="G19" s="371"/>
-      <c r="H19" s="366">
+      <c r="F19" s="376"/>
+      <c r="G19" s="377"/>
+      <c r="H19" s="372">
         <f>'Data Record'!Q25</f>
         <v>2</v>
       </c>
-      <c r="I19" s="367"/>
-      <c r="J19" s="368"/>
-      <c r="K19" s="366">
+      <c r="I19" s="373"/>
+      <c r="J19" s="374"/>
+      <c r="K19" s="372">
         <f>'Data Record'!X25</f>
         <v>-3</v>
       </c>
-      <c r="L19" s="367"/>
-      <c r="M19" s="368"/>
-      <c r="N19" s="416">
+      <c r="L19" s="373"/>
+      <c r="M19" s="374"/>
+      <c r="N19" s="366">
         <f>'Uncertainty Budget 0 to 25mm'!O8</f>
         <v>0.5842445264327828</v>
       </c>
-      <c r="O19" s="417"/>
-      <c r="P19" s="417"/>
-      <c r="Q19" s="418"/>
+      <c r="O19" s="367"/>
+      <c r="P19" s="367"/>
+      <c r="Q19" s="368"/>
       <c r="R19" s="250"/>
       <c r="S19" s="245"/>
       <c r="T19" s="245"/>
@@ -36681,31 +36681,31 @@
       <c r="A20" s="245"/>
       <c r="B20" s="247"/>
       <c r="C20" s="247"/>
-      <c r="E20" s="369">
+      <c r="E20" s="375">
         <f>'Data Record'!B26</f>
         <v>7.5</v>
       </c>
-      <c r="F20" s="370"/>
-      <c r="G20" s="371"/>
-      <c r="H20" s="366">
+      <c r="F20" s="376"/>
+      <c r="G20" s="377"/>
+      <c r="H20" s="372">
         <f>'Data Record'!Q26</f>
         <v>3</v>
       </c>
-      <c r="I20" s="367"/>
-      <c r="J20" s="368"/>
-      <c r="K20" s="366">
+      <c r="I20" s="373"/>
+      <c r="J20" s="374"/>
+      <c r="K20" s="372">
         <f>'Data Record'!X26</f>
         <v>-4.5</v>
       </c>
-      <c r="L20" s="367"/>
-      <c r="M20" s="368"/>
-      <c r="N20" s="416">
+      <c r="L20" s="373"/>
+      <c r="M20" s="374"/>
+      <c r="N20" s="366">
         <f>'Uncertainty Budget 0 to 25mm'!O9</f>
         <v>0.59804020210461883</v>
       </c>
-      <c r="O20" s="417"/>
-      <c r="P20" s="417"/>
-      <c r="Q20" s="418"/>
+      <c r="O20" s="367"/>
+      <c r="P20" s="367"/>
+      <c r="Q20" s="368"/>
       <c r="R20" s="250"/>
       <c r="S20" s="245"/>
       <c r="T20" s="245"/>
@@ -36715,31 +36715,31 @@
       <c r="A21" s="245"/>
       <c r="B21" s="247"/>
       <c r="C21" s="247"/>
-      <c r="E21" s="369">
+      <c r="E21" s="375">
         <f>'Data Record'!B27</f>
         <v>10</v>
       </c>
-      <c r="F21" s="370"/>
-      <c r="G21" s="371"/>
-      <c r="H21" s="366">
+      <c r="F21" s="376"/>
+      <c r="G21" s="377"/>
+      <c r="H21" s="372">
         <f>'Data Record'!Q27</f>
         <v>4</v>
       </c>
-      <c r="I21" s="367"/>
-      <c r="J21" s="368"/>
-      <c r="K21" s="366">
+      <c r="I21" s="373"/>
+      <c r="J21" s="374"/>
+      <c r="K21" s="372">
         <f>'Data Record'!X27</f>
         <v>-6</v>
       </c>
-      <c r="L21" s="367"/>
-      <c r="M21" s="368"/>
-      <c r="N21" s="416">
+      <c r="L21" s="373"/>
+      <c r="M21" s="374"/>
+      <c r="N21" s="366">
         <f>'Uncertainty Budget 0 to 25mm'!O10</f>
         <v>0.59545500809604968</v>
       </c>
-      <c r="O21" s="417"/>
-      <c r="P21" s="417"/>
-      <c r="Q21" s="418"/>
+      <c r="O21" s="367"/>
+      <c r="P21" s="367"/>
+      <c r="Q21" s="368"/>
       <c r="R21" s="250"/>
       <c r="S21" s="245"/>
       <c r="T21" s="245"/>
@@ -36749,31 +36749,31 @@
       <c r="A22" s="245"/>
       <c r="B22" s="247"/>
       <c r="C22" s="247"/>
-      <c r="E22" s="369">
+      <c r="E22" s="375">
         <f>'Data Record'!B28</f>
         <v>12.5</v>
       </c>
-      <c r="F22" s="370"/>
-      <c r="G22" s="371"/>
-      <c r="H22" s="366">
+      <c r="F22" s="376"/>
+      <c r="G22" s="377"/>
+      <c r="H22" s="372">
         <f>'Data Record'!Q28</f>
         <v>5</v>
       </c>
-      <c r="I22" s="367"/>
-      <c r="J22" s="368"/>
-      <c r="K22" s="366">
+      <c r="I22" s="373"/>
+      <c r="J22" s="374"/>
+      <c r="K22" s="372">
         <f>'Data Record'!X28</f>
         <v>-7.5</v>
       </c>
-      <c r="L22" s="367"/>
-      <c r="M22" s="368"/>
-      <c r="N22" s="416">
+      <c r="L22" s="373"/>
+      <c r="M22" s="374"/>
+      <c r="N22" s="366">
         <f>'Uncertainty Budget 0 to 25mm'!O11</f>
         <v>0.61260543310247151</v>
       </c>
-      <c r="O22" s="417"/>
-      <c r="P22" s="417"/>
-      <c r="Q22" s="418"/>
+      <c r="O22" s="367"/>
+      <c r="P22" s="367"/>
+      <c r="Q22" s="368"/>
       <c r="R22" s="250"/>
       <c r="S22" s="245"/>
       <c r="T22" s="245"/>
@@ -36783,31 +36783,31 @@
       <c r="A23" s="245"/>
       <c r="B23" s="247"/>
       <c r="C23" s="247"/>
-      <c r="E23" s="369">
+      <c r="E23" s="375">
         <f>'Data Record'!B29</f>
         <v>15</v>
       </c>
-      <c r="F23" s="370"/>
-      <c r="G23" s="371"/>
-      <c r="H23" s="366">
+      <c r="F23" s="376"/>
+      <c r="G23" s="377"/>
+      <c r="H23" s="372">
         <f>'Data Record'!Q29</f>
         <v>6</v>
       </c>
-      <c r="I23" s="367"/>
-      <c r="J23" s="368"/>
-      <c r="K23" s="366">
+      <c r="I23" s="373"/>
+      <c r="J23" s="374"/>
+      <c r="K23" s="372">
         <f>'Data Record'!X29</f>
         <v>-9</v>
       </c>
-      <c r="L23" s="367"/>
-      <c r="M23" s="368"/>
-      <c r="N23" s="416">
+      <c r="L23" s="373"/>
+      <c r="M23" s="374"/>
+      <c r="N23" s="366">
         <f>'Uncertainty Budget 0 to 25mm'!O12</f>
         <v>0.6147424935152388</v>
       </c>
-      <c r="O23" s="417"/>
-      <c r="P23" s="417"/>
-      <c r="Q23" s="418"/>
+      <c r="O23" s="367"/>
+      <c r="P23" s="367"/>
+      <c r="Q23" s="368"/>
       <c r="R23" s="250"/>
       <c r="S23" s="245"/>
       <c r="T23" s="245"/>
@@ -36818,31 +36818,31 @@
       <c r="A24" s="245"/>
       <c r="B24" s="247"/>
       <c r="C24" s="247"/>
-      <c r="E24" s="369">
+      <c r="E24" s="375">
         <f>'Data Record'!B30</f>
         <v>17.5</v>
       </c>
-      <c r="F24" s="370"/>
-      <c r="G24" s="371"/>
-      <c r="H24" s="366">
+      <c r="F24" s="376"/>
+      <c r="G24" s="377"/>
+      <c r="H24" s="372">
         <f>'Data Record'!Q30</f>
         <v>7</v>
       </c>
-      <c r="I24" s="367"/>
-      <c r="J24" s="368"/>
-      <c r="K24" s="366">
+      <c r="I24" s="373"/>
+      <c r="J24" s="374"/>
+      <c r="K24" s="372">
         <f>'Data Record'!X30</f>
         <v>-10.5</v>
       </c>
-      <c r="L24" s="367"/>
-      <c r="M24" s="368"/>
-      <c r="N24" s="416">
+      <c r="L24" s="373"/>
+      <c r="M24" s="374"/>
+      <c r="N24" s="366">
         <f>'Uncertainty Budget 0 to 25mm'!O13</f>
         <v>0.63579510588448762</v>
       </c>
-      <c r="O24" s="417"/>
-      <c r="P24" s="417"/>
-      <c r="Q24" s="418"/>
+      <c r="O24" s="367"/>
+      <c r="P24" s="367"/>
+      <c r="Q24" s="368"/>
       <c r="R24" s="250"/>
       <c r="S24" s="245"/>
       <c r="T24" s="245"/>
@@ -36852,31 +36852,31 @@
       <c r="A25" s="245"/>
       <c r="B25" s="247"/>
       <c r="C25" s="247"/>
-      <c r="E25" s="369">
+      <c r="E25" s="375">
         <f>'Data Record'!B31</f>
         <v>20</v>
       </c>
-      <c r="F25" s="370"/>
-      <c r="G25" s="371"/>
-      <c r="H25" s="366">
+      <c r="F25" s="376"/>
+      <c r="G25" s="377"/>
+      <c r="H25" s="372">
         <f>'Data Record'!Q31</f>
         <v>8</v>
       </c>
-      <c r="I25" s="367"/>
-      <c r="J25" s="368"/>
-      <c r="K25" s="366">
+      <c r="I25" s="373"/>
+      <c r="J25" s="374"/>
+      <c r="K25" s="372">
         <f>'Data Record'!X31</f>
         <v>-12</v>
       </c>
-      <c r="L25" s="367"/>
-      <c r="M25" s="368"/>
-      <c r="N25" s="416">
+      <c r="L25" s="373"/>
+      <c r="M25" s="374"/>
+      <c r="N25" s="366">
         <f>'Uncertainty Budget 0 to 25mm'!O14</f>
         <v>0.63934862685913907</v>
       </c>
-      <c r="O25" s="417"/>
-      <c r="P25" s="417"/>
-      <c r="Q25" s="418"/>
+      <c r="O25" s="367"/>
+      <c r="P25" s="367"/>
+      <c r="Q25" s="368"/>
       <c r="R25" s="250"/>
       <c r="S25" s="245"/>
       <c r="T25" s="245"/>
@@ -36886,31 +36886,31 @@
       <c r="A26" s="245"/>
       <c r="B26" s="247"/>
       <c r="C26" s="247"/>
-      <c r="E26" s="369">
+      <c r="E26" s="375">
         <f>'Data Record'!B32</f>
         <v>22.5</v>
       </c>
-      <c r="F26" s="370"/>
-      <c r="G26" s="371"/>
-      <c r="H26" s="366">
+      <c r="F26" s="376"/>
+      <c r="G26" s="377"/>
+      <c r="H26" s="372">
         <f>'Data Record'!Q32</f>
         <v>9</v>
       </c>
-      <c r="I26" s="367"/>
-      <c r="J26" s="368"/>
-      <c r="K26" s="366">
+      <c r="I26" s="373"/>
+      <c r="J26" s="374"/>
+      <c r="K26" s="372">
         <f>'Data Record'!X32</f>
         <v>-13.5</v>
       </c>
-      <c r="L26" s="367"/>
-      <c r="M26" s="368"/>
-      <c r="N26" s="416">
+      <c r="L26" s="373"/>
+      <c r="M26" s="374"/>
+      <c r="N26" s="366">
         <f>'Uncertainty Budget 0 to 25mm'!O15</f>
         <v>0.66294953302143089</v>
       </c>
-      <c r="O26" s="417"/>
-      <c r="P26" s="417"/>
-      <c r="Q26" s="418"/>
+      <c r="O26" s="367"/>
+      <c r="P26" s="367"/>
+      <c r="Q26" s="368"/>
       <c r="R26" s="250"/>
       <c r="S26" s="245"/>
       <c r="T26" s="245"/>
@@ -36920,31 +36920,31 @@
       <c r="A27" s="245"/>
       <c r="B27" s="247"/>
       <c r="C27" s="247"/>
-      <c r="E27" s="407">
+      <c r="E27" s="393">
         <f>'Data Record'!B33</f>
         <v>25</v>
       </c>
-      <c r="F27" s="408"/>
-      <c r="G27" s="409"/>
-      <c r="H27" s="410">
+      <c r="F27" s="394"/>
+      <c r="G27" s="395"/>
+      <c r="H27" s="396">
         <f>'Data Record'!Q33</f>
         <v>10</v>
       </c>
-      <c r="I27" s="411"/>
-      <c r="J27" s="412"/>
-      <c r="K27" s="410">
+      <c r="I27" s="397"/>
+      <c r="J27" s="398"/>
+      <c r="K27" s="396">
         <f>'Data Record'!X33</f>
         <v>-15</v>
       </c>
-      <c r="L27" s="411"/>
-      <c r="M27" s="412"/>
-      <c r="N27" s="419">
+      <c r="L27" s="397"/>
+      <c r="M27" s="398"/>
+      <c r="N27" s="369">
         <f>'Uncertainty Budget 0 to 25mm'!O16</f>
         <v>0.6696578728475211</v>
       </c>
-      <c r="O27" s="420"/>
-      <c r="P27" s="420"/>
-      <c r="Q27" s="421"/>
+      <c r="O27" s="370"/>
+      <c r="P27" s="370"/>
+      <c r="Q27" s="371"/>
       <c r="R27" s="250"/>
       <c r="S27" s="248"/>
       <c r="T27" s="249"/>
@@ -37048,29 +37048,29 @@
       <c r="U31" s="130"/>
     </row>
     <row r="32" spans="1:35" ht="17.100000000000001" customHeight="1">
-      <c r="A32" s="393" t="s">
+      <c r="A32" s="389" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="393"/>
-      <c r="C32" s="393"/>
-      <c r="D32" s="393"/>
-      <c r="E32" s="393"/>
-      <c r="F32" s="393"/>
-      <c r="G32" s="393"/>
-      <c r="H32" s="393"/>
-      <c r="I32" s="393"/>
-      <c r="J32" s="393"/>
-      <c r="K32" s="393"/>
-      <c r="L32" s="393"/>
-      <c r="M32" s="393"/>
-      <c r="N32" s="393"/>
-      <c r="O32" s="393"/>
-      <c r="P32" s="393"/>
-      <c r="Q32" s="393"/>
-      <c r="R32" s="393"/>
-      <c r="S32" s="393"/>
-      <c r="T32" s="393"/>
-      <c r="U32" s="393"/>
+      <c r="B32" s="389"/>
+      <c r="C32" s="389"/>
+      <c r="D32" s="389"/>
+      <c r="E32" s="389"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="389"/>
+      <c r="H32" s="389"/>
+      <c r="I32" s="389"/>
+      <c r="J32" s="389"/>
+      <c r="K32" s="389"/>
+      <c r="L32" s="389"/>
+      <c r="M32" s="389"/>
+      <c r="N32" s="389"/>
+      <c r="O32" s="389"/>
+      <c r="P32" s="389"/>
+      <c r="Q32" s="389"/>
+      <c r="R32" s="389"/>
+      <c r="S32" s="389"/>
+      <c r="T32" s="389"/>
+      <c r="U32" s="389"/>
     </row>
     <row r="33" spans="1:21" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="136"/>
@@ -37086,10 +37086,10 @@
       <c r="K33" s="138"/>
       <c r="L33" s="138"/>
       <c r="M33" s="138"/>
-      <c r="N33" s="394"/>
-      <c r="O33" s="394"/>
-      <c r="P33" s="394"/>
-      <c r="Q33" s="394"/>
+      <c r="N33" s="390"/>
+      <c r="O33" s="390"/>
+      <c r="P33" s="390"/>
+      <c r="Q33" s="390"/>
       <c r="R33" s="132"/>
       <c r="S33" s="132"/>
       <c r="T33" s="132"/>
@@ -37319,27 +37319,36 @@
     <row r="211" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="E16:G17"/>
+    <mergeCell ref="N16:Q17"/>
+    <mergeCell ref="K16:M17"/>
+    <mergeCell ref="H16:J17"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="K8:M9"/>
+    <mergeCell ref="N8:Q9"/>
+    <mergeCell ref="E10:G13"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B31:T31"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K22:M22"/>
     <mergeCell ref="A32:U32"/>
     <mergeCell ref="N33:Q33"/>
     <mergeCell ref="E23:G23"/>
@@ -37356,38 +37365,29 @@
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:Q18"/>
     <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B31:T31"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="E16:G17"/>
-    <mergeCell ref="N16:Q17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="H16:J17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="H8:J9"/>
-    <mergeCell ref="K8:M9"/>
-    <mergeCell ref="N8:Q9"/>
-    <mergeCell ref="E10:G13"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N23:Q23"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -37404,7 +37404,7 @@
   </sheetPr>
   <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7:N16"/>
     </sheetView>
   </sheetViews>
@@ -40411,137 +40411,137 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:29" ht="26.25">
-      <c r="A2" s="440" t="s">
+      <c r="A2" s="432" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="441"/>
-      <c r="C2" s="441"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="442"/>
+      <c r="B2" s="433"/>
+      <c r="C2" s="433"/>
+      <c r="D2" s="433"/>
+      <c r="E2" s="434"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="440" t="s">
+      <c r="G2" s="432" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="441"/>
-      <c r="I2" s="441"/>
-      <c r="J2" s="441"/>
-      <c r="K2" s="442"/>
+      <c r="H2" s="433"/>
+      <c r="I2" s="433"/>
+      <c r="J2" s="433"/>
+      <c r="K2" s="434"/>
       <c r="L2" s="40"/>
-      <c r="M2" s="440" t="s">
+      <c r="M2" s="432" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="441"/>
-      <c r="O2" s="441"/>
-      <c r="P2" s="441"/>
-      <c r="Q2" s="442"/>
+      <c r="N2" s="433"/>
+      <c r="O2" s="433"/>
+      <c r="P2" s="433"/>
+      <c r="Q2" s="434"/>
       <c r="R2" s="40"/>
-      <c r="S2" s="440" t="s">
+      <c r="S2" s="432" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="441"/>
-      <c r="U2" s="441"/>
-      <c r="V2" s="441"/>
-      <c r="W2" s="442"/>
+      <c r="T2" s="433"/>
+      <c r="U2" s="433"/>
+      <c r="V2" s="433"/>
+      <c r="W2" s="434"/>
       <c r="X2" s="40"/>
-      <c r="Y2" s="440" t="s">
+      <c r="Y2" s="432" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="441"/>
-      <c r="AA2" s="441"/>
-      <c r="AB2" s="441"/>
-      <c r="AC2" s="442"/>
+      <c r="Z2" s="433"/>
+      <c r="AA2" s="433"/>
+      <c r="AB2" s="433"/>
+      <c r="AC2" s="434"/>
     </row>
     <row r="3" spans="1:29" ht="26.25">
-      <c r="A3" s="432" t="s">
+      <c r="A3" s="435" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="433"/>
-      <c r="C3" s="433"/>
-      <c r="D3" s="433"/>
-      <c r="E3" s="434"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="437"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="432" t="s">
+      <c r="G3" s="435" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="433"/>
-      <c r="I3" s="433"/>
-      <c r="J3" s="433"/>
-      <c r="K3" s="434"/>
+      <c r="H3" s="436"/>
+      <c r="I3" s="436"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="437"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="432" t="s">
+      <c r="M3" s="435" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="433"/>
-      <c r="O3" s="433"/>
-      <c r="P3" s="433"/>
-      <c r="Q3" s="434"/>
+      <c r="N3" s="436"/>
+      <c r="O3" s="436"/>
+      <c r="P3" s="436"/>
+      <c r="Q3" s="437"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="432" t="s">
+      <c r="S3" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="433"/>
-      <c r="U3" s="433"/>
-      <c r="V3" s="433"/>
-      <c r="W3" s="434"/>
+      <c r="T3" s="436"/>
+      <c r="U3" s="436"/>
+      <c r="V3" s="436"/>
+      <c r="W3" s="437"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="432" t="s">
+      <c r="Y3" s="435" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="433"/>
-      <c r="AA3" s="433"/>
-      <c r="AB3" s="433"/>
-      <c r="AC3" s="434"/>
+      <c r="Z3" s="436"/>
+      <c r="AA3" s="436"/>
+      <c r="AB3" s="436"/>
+      <c r="AC3" s="437"/>
     </row>
     <row r="4" spans="1:29" ht="26.25">
-      <c r="A4" s="435" t="s">
+      <c r="A4" s="438" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="436"/>
-      <c r="C4" s="437">
+      <c r="B4" s="439"/>
+      <c r="C4" s="440">
         <v>42337</v>
       </c>
-      <c r="D4" s="438"/>
-      <c r="E4" s="439"/>
+      <c r="D4" s="441"/>
+      <c r="E4" s="442"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="435" t="s">
+      <c r="G4" s="438" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="436"/>
-      <c r="I4" s="437">
+      <c r="H4" s="439"/>
+      <c r="I4" s="440">
         <v>42503</v>
       </c>
-      <c r="J4" s="438"/>
-      <c r="K4" s="439"/>
+      <c r="J4" s="441"/>
+      <c r="K4" s="442"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="435" t="s">
+      <c r="M4" s="438" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="436"/>
-      <c r="O4" s="437">
+      <c r="N4" s="439"/>
+      <c r="O4" s="440">
         <v>42337</v>
       </c>
-      <c r="P4" s="438"/>
-      <c r="Q4" s="439"/>
+      <c r="P4" s="441"/>
+      <c r="Q4" s="442"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="435" t="s">
+      <c r="S4" s="438" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="436"/>
-      <c r="U4" s="437">
+      <c r="T4" s="439"/>
+      <c r="U4" s="440">
         <v>42502</v>
       </c>
-      <c r="V4" s="438"/>
-      <c r="W4" s="439"/>
+      <c r="V4" s="441"/>
+      <c r="W4" s="442"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="435" t="s">
+      <c r="Y4" s="438" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="436"/>
-      <c r="AA4" s="437">
+      <c r="Z4" s="439"/>
+      <c r="AA4" s="440">
         <v>42530</v>
       </c>
-      <c r="AB4" s="438"/>
-      <c r="AC4" s="439"/>
+      <c r="AB4" s="441"/>
+      <c r="AC4" s="442"/>
     </row>
     <row r="5" spans="1:29" ht="26.25">
       <c r="A5" s="43">
@@ -42649,6 +42649,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M4:N4"/>
@@ -42661,14 +42669,6 @@
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:W4"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
